--- a/docs/mcode/onco-core-CancerRelatedRadiationProcedure.xlsx
+++ b/docs/mcode/onco-core-CancerRelatedRadiationProcedure.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AL$73</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AL$69</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2423" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2291" uniqueCount="340">
   <si>
     <t>Path</t>
   </si>
@@ -146,8 +146,7 @@
     <t>onco-core-CancerRelatedRadiationProcedure</t>
   </si>
   <si>
-    <t>A radiological treatment addressing a cancer condition. Any radiological procedure relevant to the cancer condition is of interest in mCODE.
-In the context of FHIR, the way to indicate that unrelated radiation procedures are _not_ included in mCODE involves constraining the ReasonReference or ReasonCode to a cancer condition.</t>
+    <t>A radiological treatment addressing a cancer condition. The scope of this profile has been narrowed to cancer-related procedures by constraining the ReasonReference and ReasonCode to cancer conditions.</t>
   </si>
   <si>
     <t xml:space="preserve">pro-1:Reason not performed is only permitted if notPerformed indicator is true {null}
@@ -399,30 +398,14 @@
     <t>Extension.value[x]</t>
   </si>
   <si>
-    <t>reasonreference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-ReasonReference-extension]]} {[]}
+    <t>cancerreasonreference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/onco-core-CancerReasonReference-extension]]} {[]}
 </t>
   </si>
   <si>
-    <t>The justification, as reference to a condition or observation.</t>
-  </si>
-  <si>
-    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-ReasonReference-extension"/&gt;</t>
-  </si>
-  <si>
-    <t>Procedure.extension.valueReference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/onco-core-CancerCondition]]}
-</t>
-  </si>
-  <si>
-    <t>CancerCondition</t>
-  </si>
-  <si>
-    <t>Abstract class for describing a primary or secondary metastatic neoplastic diseases.</t>
+    <t>Reference to a primary or secondary cancer condition.</t>
   </si>
   <si>
     <t>partof</t>
@@ -438,6 +421,9 @@
     <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-PartOf-extension"/&gt;</t>
   </si>
   <si>
+    <t>Procedure.extension.valueReference</t>
+  </si>
+  <si>
     <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Procedure]]}
 </t>
   </si>
@@ -452,7 +438,7 @@
 </t>
   </si>
   <si>
-    <t>The purpose of a treatment. A simplified set of values include only two choices: curative and palliative. Curative is defined as any treatment meant to reduce or control a disease process, even if a 'cure' is not anticipated. Palliative includes treatments meant to reduce symptoms and side effects, such as antiemetics. If a treatment does both, it should be recorded as curative.</t>
+    <t>The purpose of a treatment.</t>
   </si>
   <si>
     <t>radiationdoseperfraction</t>
@@ -658,10 +644,7 @@
     <t>Detailed and structured anatomical location information. Multiple locations are allowed - e.g. multiple punch biopsies of a lesion.</t>
   </si>
   <si>
-    <t>preferred</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/mcode/shr/core/vs/BodyLocationVS</t>
+    <t>http://hl7.org/fhir/us/mcode/shr/core/vs/RadiationTargetBodySiteVS</t>
   </si>
   <si>
     <t>.targetSiteCode</t>
@@ -693,7 +676,7 @@
   </si>
   <si>
     <t>Body side of the body location, if needed to distinguish from a similar location on the other side of the body.
-This extension is part of the profile on body site appearing throughout the mCODE implementation guide. Body location is a flexible structure that allows the location to be determined by a single code, or a code plus laterality and/or orientation. The body location can also be specified in relation to one or more body landmarks. SNOMED CT is used in all cases.
+The laterality element is part of BodyLocation, a flexible structure that allows the location to be determined by a single code, or a code plus laterality and/or orientation. The body location can also be specified in relation to one or more body landmarks. SNOMED CT is used in all cases.
 + Code only: The code should include (precoordinate) laterality and/orientation to the degree necessary to completely specify the body location.
 + Code plus laterality and/or orientation: The basic code augmented by codes specifying the body side and/or anatomical orientation.
 + Relation to landmark: The location relative to a landmark is specified by:
@@ -710,7 +693,7 @@
   </si>
   <si>
     <t>Orientation of the body location, if needed to distinguish from a similar location in another orientation.
-This extension is part of the profile on body site appearing throughout the mCODE implementation guide. Body location is a flexible structure that allows the location to be determined by a single code, or a code plus laterality and/or orientation. The body location can also be specified in relation to one or more body landmarks. SNOMED CT is used in all cases.
+The orientation element is part of BodyLocation, a flexible structure that allows the location to be determined by a single code, or a code plus laterality and/or orientation. The body location can also be specified in relation to one or more body landmarks. SNOMED CT is used in all cases.
 + Code only: The code should include (precoordinate) laterality and/orientation to the degree necessary to completely specify the body location.
 + Code plus laterality and/or orientation: The basic code augmented by codes specifying the body side and/or anatomical orientation.
 + Relation to landmark: The location relative to a landmark is specified by:
@@ -730,7 +713,7 @@
 * Specifying the location and type of landmark using a body site code and optional laterality/orientation,
 * Specifying the direction from the landmark to the body location, and
 * Specifying the distance from the landmark to the body location.
-This extension is part of the profile on body site appearing throughout the mCODE implementation guide. Body location is a flexible structure that allows the location to be determined by a single code, or a code plus laterality and/or orientation. The body location can also be specified in relation to one or more body landmarks. SNOMED CT is used in all cases.
+The RelationToLandmark element is part of BodyLocation, a flexible structure that allows the location to be determined by a single code, or a code plus laterality and/or orientation. The body location can also be specified in relation to one or more body landmarks. SNOMED CT is used in all cases.
 + Code only: The code should include (precoordinate) laterality and/orientation to the degree necessary to completely specify the body location.
 + Code plus laterality and/or orientation: The basic code augmented by codes specifying the body side and/or anatomical orientation.
 + Relation to landmark: The location relative to a landmark is specified by:
@@ -1270,7 +1253,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM73"/>
+  <dimension ref="A1:AM69"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2399,7 +2382,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
         <v>86</v>
       </c>
@@ -2417,7 +2400,7 @@
         <v>48</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>39</v>
@@ -2927,7 +2910,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
         <v>86</v>
       </c>
@@ -2945,7 +2928,7 @@
         <v>48</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>39</v>
@@ -3035,9 +3018,11 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="B17" s="2"/>
+        <v>86</v>
+      </c>
+      <c r="B17" t="s" s="2">
+        <v>124</v>
+      </c>
       <c r="C17" t="s" s="2">
         <v>39</v>
       </c>
@@ -3058,13 +3043,11 @@
         <v>39</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="K17" t="s" s="2">
-        <v>102</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="K17" s="2"/>
       <c r="L17" t="s" s="2">
-        <v>103</v>
+        <v>126</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -3088,7 +3071,7 @@
         <v>39</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="W17" t="s" s="2">
         <v>39</v>
@@ -3115,13 +3098,13 @@
         <v>39</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>39</v>
@@ -3130,7 +3113,7 @@
         <v>39</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>85</v>
+        <v>39</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>39</v>
@@ -3141,7 +3124,7 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3152,7 +3135,7 @@
         <v>40</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>39</v>
@@ -3164,13 +3147,13 @@
         <v>39</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -3221,13 +3204,13 @@
         <v>39</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>39</v>
@@ -3236,7 +3219,7 @@
         <v>39</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>39</v>
+        <v>85</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>39</v>
@@ -3247,7 +3230,7 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3255,10 +3238,10 @@
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>39</v>
@@ -3270,13 +3253,13 @@
         <v>39</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>59</v>
+        <v>88</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -3285,7 +3268,7 @@
       </c>
       <c r="P19" s="2"/>
       <c r="Q19" t="s" s="2">
-        <v>124</v>
+        <v>39</v>
       </c>
       <c r="R19" t="s" s="2">
         <v>39</v>
@@ -3327,13 +3310,13 @@
         <v>39</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>39</v>
@@ -3342,7 +3325,7 @@
         <v>39</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>85</v>
+        <v>39</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>39</v>
@@ -3353,7 +3336,7 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3376,13 +3359,13 @@
         <v>39</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>126</v>
+        <v>59</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -3391,7 +3374,7 @@
       </c>
       <c r="P20" s="2"/>
       <c r="Q20" t="s" s="2">
-        <v>39</v>
+        <v>127</v>
       </c>
       <c r="R20" t="s" s="2">
         <v>39</v>
@@ -3433,10 +3416,10 @@
         <v>39</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>48</v>
@@ -3459,17 +3442,15 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="B21" t="s" s="2">
-        <v>129</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
         <v>39</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="F21" t="s" s="2">
         <v>48</v>
@@ -3484,11 +3465,13 @@
         <v>39</v>
       </c>
       <c r="J21" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="K21" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="L21" t="s" s="2">
         <v>130</v>
-      </c>
-      <c r="K21" s="2"/>
-      <c r="L21" t="s" s="2">
-        <v>131</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -3512,7 +3495,7 @@
         <v>39</v>
       </c>
       <c r="V21" t="s" s="2">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="W21" t="s" s="2">
         <v>39</v>
@@ -3539,35 +3522,37 @@
         <v>39</v>
       </c>
       <c r="AE21" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="AF21" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG21" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AH21" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI21" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ21" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AK21" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AL21" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="AF21" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG21" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AH21" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI21" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ21" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AK21" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AL21" t="s" s="2">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="22" hidden="true">
-      <c r="A22" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="B22" s="2"/>
+      <c r="B22" t="s" s="2">
+        <v>131</v>
+      </c>
       <c r="C22" t="s" s="2">
         <v>39</v>
       </c>
@@ -3579,7 +3564,7 @@
         <v>48</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>39</v>
@@ -3588,13 +3573,11 @@
         <v>39</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="K22" t="s" s="2">
-        <v>102</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="K22" s="2"/>
       <c r="L22" t="s" s="2">
-        <v>103</v>
+        <v>133</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -3618,7 +3601,7 @@
         <v>39</v>
       </c>
       <c r="V22" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="W22" t="s" s="2">
         <v>39</v>
@@ -3645,13 +3628,13 @@
         <v>39</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>39</v>
@@ -3660,7 +3643,7 @@
         <v>39</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>85</v>
+        <v>39</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>39</v>
@@ -3671,9 +3654,11 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="B23" s="2"/>
+        <v>86</v>
+      </c>
+      <c r="B23" t="s" s="2">
+        <v>134</v>
+      </c>
       <c r="C23" t="s" s="2">
         <v>39</v>
       </c>
@@ -3682,7 +3667,7 @@
         <v>40</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>39</v>
@@ -3694,13 +3679,11 @@
         <v>39</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K23" t="s" s="2">
-        <v>106</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="K23" s="2"/>
       <c r="L23" t="s" s="2">
-        <v>107</v>
+        <v>136</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -3724,7 +3707,7 @@
         <v>39</v>
       </c>
       <c r="V23" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="W23" t="s" s="2">
         <v>39</v>
@@ -3751,7 +3734,7 @@
         <v>39</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>108</v>
+        <v>86</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>40</v>
@@ -3777,15 +3760,17 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="B24" s="2"/>
+        <v>86</v>
+      </c>
+      <c r="B24" t="s" s="2">
+        <v>137</v>
+      </c>
       <c r="C24" t="s" s="2">
         <v>39</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F24" t="s" s="2">
         <v>48</v>
@@ -3800,13 +3785,11 @@
         <v>39</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>59</v>
-      </c>
-      <c r="K24" t="s" s="2">
-        <v>110</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="K24" s="2"/>
       <c r="L24" t="s" s="2">
-        <v>111</v>
+        <v>136</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -3815,7 +3798,7 @@
       </c>
       <c r="P24" s="2"/>
       <c r="Q24" t="s" s="2">
-        <v>132</v>
+        <v>39</v>
       </c>
       <c r="R24" t="s" s="2">
         <v>39</v>
@@ -3830,7 +3813,7 @@
         <v>39</v>
       </c>
       <c r="V24" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="W24" t="s" s="2">
         <v>39</v>
@@ -3857,13 +3840,13 @@
         <v>39</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>113</v>
+        <v>86</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>39</v>
@@ -3872,7 +3855,7 @@
         <v>39</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>85</v>
+        <v>39</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>39</v>
@@ -3883,15 +3866,17 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="B25" s="2"/>
+        <v>86</v>
+      </c>
+      <c r="B25" t="s" s="2">
+        <v>139</v>
+      </c>
       <c r="C25" t="s" s="2">
         <v>39</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F25" t="s" s="2">
         <v>48</v>
@@ -3906,13 +3891,11 @@
         <v>39</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="K25" t="s" s="2">
-        <v>38</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="K25" s="2"/>
       <c r="L25" t="s" s="2">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -3936,7 +3919,7 @@
         <v>39</v>
       </c>
       <c r="V25" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="W25" t="s" s="2">
         <v>39</v>
@@ -3963,13 +3946,13 @@
         <v>39</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>120</v>
+        <v>86</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>39</v>
@@ -3978,7 +3961,7 @@
         <v>39</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>85</v>
+        <v>39</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>39</v>
@@ -3987,12 +3970,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
         <v>86</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="C26" t="s" s="2">
         <v>39</v>
@@ -4002,10 +3985,10 @@
         <v>40</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>39</v>
@@ -4014,11 +3997,11 @@
         <v>39</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="K26" s="2"/>
       <c r="L26" t="s" s="2">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -4095,11 +4078,9 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="B27" t="s" s="2">
-        <v>138</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
         <v>39</v>
       </c>
@@ -4120,11 +4101,13 @@
         <v>39</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="K27" s="2"/>
+        <v>101</v>
+      </c>
+      <c r="K27" t="s" s="2">
+        <v>102</v>
+      </c>
       <c r="L27" t="s" s="2">
-        <v>140</v>
+        <v>103</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -4148,7 +4131,7 @@
         <v>39</v>
       </c>
       <c r="V27" t="s" s="2">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="W27" t="s" s="2">
         <v>39</v>
@@ -4175,13 +4158,13 @@
         <v>39</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>39</v>
@@ -4190,7 +4173,7 @@
         <v>39</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>39</v>
+        <v>85</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>39</v>
@@ -4201,11 +4184,9 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="B28" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
         <v>39</v>
       </c>
@@ -4214,7 +4195,7 @@
         <v>40</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>39</v>
@@ -4226,11 +4207,13 @@
         <v>39</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="K28" s="2"/>
+        <v>88</v>
+      </c>
+      <c r="K28" t="s" s="2">
+        <v>106</v>
+      </c>
       <c r="L28" t="s" s="2">
-        <v>140</v>
+        <v>107</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -4254,7 +4237,7 @@
         <v>39</v>
       </c>
       <c r="V28" t="s" s="2">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="W28" t="s" s="2">
         <v>39</v>
@@ -4281,7 +4264,7 @@
         <v>39</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>86</v>
+        <v>108</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>40</v>
@@ -4307,17 +4290,15 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="B29" t="s" s="2">
-        <v>143</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
         <v>39</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="F29" t="s" s="2">
         <v>48</v>
@@ -4332,11 +4313,13 @@
         <v>39</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="K29" s="2"/>
+        <v>59</v>
+      </c>
+      <c r="K29" t="s" s="2">
+        <v>110</v>
+      </c>
       <c r="L29" t="s" s="2">
-        <v>145</v>
+        <v>111</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -4345,7 +4328,7 @@
       </c>
       <c r="P29" s="2"/>
       <c r="Q29" t="s" s="2">
-        <v>39</v>
+        <v>145</v>
       </c>
       <c r="R29" t="s" s="2">
         <v>39</v>
@@ -4360,7 +4343,7 @@
         <v>39</v>
       </c>
       <c r="V29" t="s" s="2">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="W29" t="s" s="2">
         <v>39</v>
@@ -4387,13 +4370,13 @@
         <v>39</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>86</v>
+        <v>113</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>39</v>
@@ -4402,7 +4385,7 @@
         <v>39</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>39</v>
+        <v>85</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>39</v>
@@ -4413,20 +4396,18 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="B30" t="s" s="2">
-        <v>146</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
         <v>39</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>39</v>
@@ -4438,11 +4419,13 @@
         <v>39</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="K30" s="2"/>
+        <v>115</v>
+      </c>
+      <c r="K30" t="s" s="2">
+        <v>116</v>
+      </c>
       <c r="L30" t="s" s="2">
-        <v>148</v>
+        <v>117</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -4466,16 +4449,14 @@
         <v>39</v>
       </c>
       <c r="V30" t="s" s="2">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="X30" t="s" s="2">
-        <v>39</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="X30" s="2"/>
       <c r="Y30" t="s" s="2">
-        <v>39</v>
+        <v>146</v>
       </c>
       <c r="Z30" t="s" s="2">
         <v>39</v>
@@ -4493,13 +4474,13 @@
         <v>39</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>86</v>
+        <v>120</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>39</v>
@@ -4508,7 +4489,7 @@
         <v>39</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>39</v>
+        <v>85</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>39</v>
@@ -4519,38 +4500,40 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>100</v>
+        <v>147</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>39</v>
+        <v>87</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="I31" t="s" s="2">
         <v>39</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>102</v>
+        <v>148</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="M31" s="2"/>
+        <v>149</v>
+      </c>
+      <c r="M31" t="s" s="2">
+        <v>91</v>
+      </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
         <v>39</v>
@@ -4572,7 +4555,7 @@
         <v>39</v>
       </c>
       <c r="V31" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="W31" t="s" s="2">
         <v>39</v>
@@ -4599,13 +4582,13 @@
         <v>39</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>104</v>
+        <v>147</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>39</v>
@@ -4625,7 +4608,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>105</v>
+        <v>150</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4636,7 +4619,7 @@
         <v>40</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>39</v>
@@ -4645,19 +4628,21 @@
         <v>39</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>88</v>
+        <v>151</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>106</v>
+        <v>152</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>107</v>
+        <v>153</v>
       </c>
       <c r="M32" s="2"/>
-      <c r="N32" s="2"/>
+      <c r="N32" t="s" s="2">
+        <v>154</v>
+      </c>
       <c r="O32" t="s" s="2">
         <v>39</v>
       </c>
@@ -4678,7 +4663,7 @@
         <v>39</v>
       </c>
       <c r="V32" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="W32" t="s" s="2">
         <v>39</v>
@@ -4705,7 +4690,7 @@
         <v>39</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>108</v>
+        <v>150</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>40</v>
@@ -4720,18 +4705,18 @@
         <v>39</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>39</v>
+        <v>155</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>39</v>
+        <v>156</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>39</v>
+        <v>157</v>
       </c>
     </row>
-    <row r="33" hidden="true">
+    <row r="33">
       <c r="A33" t="s" s="2">
-        <v>109</v>
+        <v>158</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4745,7 +4730,7 @@
         <v>48</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>39</v>
@@ -4754,13 +4739,13 @@
         <v>39</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>59</v>
+        <v>159</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>110</v>
+        <v>160</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>111</v>
+        <v>161</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -4769,7 +4754,7 @@
       </c>
       <c r="P33" s="2"/>
       <c r="Q33" t="s" s="2">
-        <v>149</v>
+        <v>39</v>
       </c>
       <c r="R33" t="s" s="2">
         <v>39</v>
@@ -4784,7 +4769,7 @@
         <v>39</v>
       </c>
       <c r="V33" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="W33" t="s" s="2">
         <v>39</v>
@@ -4811,7 +4796,7 @@
         <v>39</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>113</v>
+        <v>158</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>48</v>
@@ -4826,18 +4811,18 @@
         <v>39</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>85</v>
+        <v>162</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>39</v>
+        <v>163</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>39</v>
+        <v>164</v>
       </c>
     </row>
-    <row r="34" hidden="true">
+    <row r="34">
       <c r="A34" t="s" s="2">
-        <v>114</v>
+        <v>165</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -4851,22 +4836,22 @@
         <v>48</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="I34" t="s" s="2">
         <v>39</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>115</v>
+        <v>64</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>116</v>
+        <v>166</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>117</v>
+        <v>167</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -4890,14 +4875,14 @@
         <v>39</v>
       </c>
       <c r="V34" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="W34" t="s" s="2">
         <v>68</v>
       </c>
       <c r="X34" s="2"/>
       <c r="Y34" t="s" s="2">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>39</v>
@@ -4915,10 +4900,10 @@
         <v>39</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>120</v>
+        <v>165</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>48</v>
@@ -4930,7 +4915,7 @@
         <v>39</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>85</v>
+        <v>39</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>39</v>
@@ -4941,40 +4926,38 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>87</v>
+        <v>39</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H35" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I35" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="I35" t="s" s="2">
-        <v>39</v>
-      </c>
       <c r="J35" t="s" s="2">
-        <v>88</v>
+        <v>115</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>152</v>
+        <v>170</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>91</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="M35" s="2"/>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
         <v>39</v>
@@ -4999,13 +4982,13 @@
         <v>40</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>39</v>
+        <v>172</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>39</v>
+        <v>173</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>39</v>
+        <v>174</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>39</v>
@@ -5023,13 +5006,13 @@
         <v>39</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>39</v>
@@ -5038,7 +5021,7 @@
         <v>39</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>85</v>
+        <v>175</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>39</v>
@@ -5047,9 +5030,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="36" hidden="true">
+    <row r="36">
       <c r="A36" t="s" s="2">
-        <v>154</v>
+        <v>176</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5057,33 +5040,31 @@
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>39</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>155</v>
+        <v>115</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>156</v>
+        <v>177</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>157</v>
+        <v>178</v>
       </c>
       <c r="M36" s="2"/>
-      <c r="N36" t="s" s="2">
-        <v>158</v>
-      </c>
+      <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
         <v>39</v>
       </c>
@@ -5107,13 +5088,11 @@
         <v>40</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="X36" t="s" s="2">
-        <v>39</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="X36" s="2"/>
       <c r="Y36" t="s" s="2">
-        <v>39</v>
+        <v>179</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>39</v>
@@ -5131,13 +5110,13 @@
         <v>39</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>154</v>
+        <v>176</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>39</v>
@@ -5146,18 +5125,18 @@
         <v>39</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>159</v>
+        <v>180</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>160</v>
+        <v>181</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>161</v>
+        <v>182</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>162</v>
+        <v>183</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5165,33 +5144,33 @@
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="G37" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H37" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="H37" t="s" s="2">
-        <v>39</v>
-      </c>
       <c r="I37" t="s" s="2">
         <v>39</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>163</v>
+        <v>184</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>164</v>
+        <v>185</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>165</v>
+        <v>186</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
-        <v>39</v>
+        <v>187</v>
       </c>
       <c r="P37" s="2"/>
       <c r="Q37" t="s" s="2">
@@ -5237,10 +5216,10 @@
         <v>39</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>162</v>
+        <v>183</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>48</v>
@@ -5252,18 +5231,18 @@
         <v>39</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>166</v>
+        <v>188</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>167</v>
+        <v>39</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>168</v>
+        <v>39</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>169</v>
+        <v>189</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5271,28 +5250,28 @@
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="I38" t="s" s="2">
         <v>39</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>64</v>
+        <v>115</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>171</v>
+        <v>191</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -5319,11 +5298,13 @@
         <v>40</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>68</v>
-      </c>
-      <c r="X38" s="2"/>
+        <v>172</v>
+      </c>
+      <c r="X38" t="s" s="2">
+        <v>192</v>
+      </c>
       <c r="Y38" t="s" s="2">
-        <v>172</v>
+        <v>193</v>
       </c>
       <c r="Z38" t="s" s="2">
         <v>39</v>
@@ -5341,22 +5322,22 @@
         <v>39</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>169</v>
+        <v>189</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>39</v>
+        <v>194</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>39</v>
+        <v>195</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>39</v>
@@ -5365,9 +5346,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="39" hidden="true">
+    <row r="39">
       <c r="A39" t="s" s="2">
-        <v>173</v>
+        <v>196</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5378,10 +5359,10 @@
         <v>40</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>39</v>
@@ -5393,10 +5374,10 @@
         <v>115</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>174</v>
+        <v>197</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>175</v>
+        <v>198</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -5423,13 +5404,11 @@
         <v>40</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="X39" t="s" s="2">
-        <v>177</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="X39" s="2"/>
       <c r="Y39" t="s" s="2">
-        <v>178</v>
+        <v>199</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>39</v>
@@ -5447,13 +5426,13 @@
         <v>39</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>173</v>
+        <v>196</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>39</v>
@@ -5462,18 +5441,18 @@
         <v>39</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>179</v>
+        <v>200</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>39</v>
+        <v>201</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>180</v>
+        <v>202</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5481,13 +5460,13 @@
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F40" t="s" s="2">
         <v>48</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>39</v>
@@ -5496,13 +5475,13 @@
         <v>39</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>115</v>
+        <v>50</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>181</v>
+        <v>102</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>182</v>
+        <v>203</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -5526,14 +5505,16 @@
         <v>39</v>
       </c>
       <c r="V40" t="s" s="2">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="X40" s="2"/>
+        <v>39</v>
+      </c>
+      <c r="X40" t="s" s="2">
+        <v>39</v>
+      </c>
       <c r="Y40" t="s" s="2">
-        <v>183</v>
+        <v>39</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>39</v>
@@ -5550,15 +5531,11 @@
       <c r="AD40" t="s" s="2">
         <v>39</v>
       </c>
-      <c r="AE40" t="s" s="2">
-        <v>180</v>
-      </c>
+      <c r="AE40" s="2"/>
       <c r="AF40" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AG40" t="s" s="2">
-        <v>48</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="AG40" s="2"/>
       <c r="AH40" t="s" s="2">
         <v>39</v>
       </c>
@@ -5566,52 +5543,54 @@
         <v>39</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>184</v>
+        <v>204</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>185</v>
+        <v>39</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>186</v>
+        <v>39</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>187</v>
+        <v>205</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>39</v>
+        <v>87</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="I41" t="s" s="2">
         <v>39</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>188</v>
+        <v>88</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>189</v>
+        <v>89</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="M41" s="2"/>
+        <v>206</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>91</v>
+      </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
-        <v>191</v>
+        <v>39</v>
       </c>
       <c r="P41" s="2"/>
       <c r="Q41" t="s" s="2">
@@ -5630,7 +5609,7 @@
         <v>39</v>
       </c>
       <c r="V41" t="s" s="2">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="W41" t="s" s="2">
         <v>39</v>
@@ -5645,26 +5624,20 @@
         <v>39</v>
       </c>
       <c r="AA41" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB41" t="s" s="2">
-        <v>39</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="AB41" s="2"/>
       <c r="AC41" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AD41" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE41" t="s" s="2">
-        <v>187</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="AE41" s="2"/>
       <c r="AF41" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG41" t="s" s="2">
-        <v>48</v>
-      </c>
+      <c r="AG41" s="2"/>
       <c r="AH41" t="s" s="2">
         <v>39</v>
       </c>
@@ -5672,7 +5645,7 @@
         <v>39</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>39</v>
@@ -5683,9 +5656,11 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="B42" s="2"/>
+        <v>205</v>
+      </c>
+      <c r="B42" t="s" s="2">
+        <v>207</v>
+      </c>
       <c r="C42" t="s" s="2">
         <v>39</v>
       </c>
@@ -5694,7 +5669,7 @@
         <v>40</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>39</v>
@@ -5706,13 +5681,11 @@
         <v>39</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="K42" t="s" s="2">
-        <v>194</v>
-      </c>
+        <v>208</v>
+      </c>
+      <c r="K42" s="2"/>
       <c r="L42" t="s" s="2">
-        <v>195</v>
+        <v>209</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -5736,16 +5709,16 @@
         <v>39</v>
       </c>
       <c r="V42" t="s" s="2">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>176</v>
+        <v>39</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>196</v>
+        <v>39</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>197</v>
+        <v>39</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>39</v>
@@ -5763,7 +5736,7 @@
         <v>39</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>40</v>
@@ -5772,13 +5745,13 @@
         <v>41</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>198</v>
+        <v>39</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>199</v>
+        <v>39</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>39</v>
@@ -5789,9 +5762,11 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="B43" s="2"/>
+        <v>205</v>
+      </c>
+      <c r="B43" t="s" s="2">
+        <v>210</v>
+      </c>
       <c r="C43" t="s" s="2">
         <v>39</v>
       </c>
@@ -5809,16 +5784,14 @@
         <v>39</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="K43" t="s" s="2">
-        <v>201</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="K43" s="2"/>
       <c r="L43" t="s" s="2">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -5842,14 +5815,16 @@
         <v>39</v>
       </c>
       <c r="V43" t="s" s="2">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="X43" s="2"/>
+        <v>39</v>
+      </c>
+      <c r="X43" t="s" s="2">
+        <v>39</v>
+      </c>
       <c r="Y43" t="s" s="2">
-        <v>204</v>
+        <v>39</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>39</v>
@@ -5867,7 +5842,7 @@
         <v>39</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>40</v>
@@ -5882,20 +5857,22 @@
         <v>39</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>205</v>
+        <v>39</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>206</v>
+        <v>39</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="B44" s="2"/>
+        <v>205</v>
+      </c>
+      <c r="B44" t="s" s="2">
+        <v>213</v>
+      </c>
       <c r="C44" t="s" s="2">
         <v>39</v>
       </c>
@@ -5904,7 +5881,7 @@
         <v>40</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>39</v>
@@ -5916,13 +5893,11 @@
         <v>39</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="K44" t="s" s="2">
-        <v>102</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="K44" s="2"/>
       <c r="L44" t="s" s="2">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -5972,11 +5947,15 @@
       <c r="AD44" t="s" s="2">
         <v>39</v>
       </c>
-      <c r="AE44" s="2"/>
+      <c r="AE44" t="s" s="2">
+        <v>205</v>
+      </c>
       <c r="AF44" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG44" s="2"/>
+      <c r="AG44" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AH44" t="s" s="2">
         <v>39</v>
       </c>
@@ -5984,7 +5963,7 @@
         <v>39</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>209</v>
+        <v>39</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>39</v>
@@ -5995,11 +5974,11 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>87</v>
+        <v>39</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
@@ -6015,21 +5994,23 @@
         <v>39</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>88</v>
+        <v>217</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>89</v>
+        <v>218</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="N45" s="2"/>
+        <v>220</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>221</v>
+      </c>
       <c r="O45" t="s" s="2">
         <v>39</v>
       </c>
@@ -6065,14 +6046,16 @@
         <v>39</v>
       </c>
       <c r="AA45" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AB45" s="2"/>
+        <v>39</v>
+      </c>
+      <c r="AB45" t="s" s="2">
+        <v>39</v>
+      </c>
       <c r="AC45" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AD45" t="s" s="2">
-        <v>93</v>
+        <v>39</v>
       </c>
       <c r="AE45" s="2"/>
       <c r="AF45" t="s" s="2">
@@ -6086,22 +6069,20 @@
         <v>39</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>209</v>
+        <v>222</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>39</v>
+        <v>223</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="B46" t="s" s="2">
-        <v>212</v>
-      </c>
+        <v>224</v>
+      </c>
+      <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
         <v>39</v>
       </c>
@@ -6110,7 +6091,7 @@
         <v>40</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>39</v>
@@ -6119,17 +6100,23 @@
         <v>39</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="K46" s="2"/>
+        <v>101</v>
+      </c>
+      <c r="K46" t="s" s="2">
+        <v>225</v>
+      </c>
       <c r="L46" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="M46" s="2"/>
-      <c r="N46" s="2"/>
+        <v>226</v>
+      </c>
+      <c r="M46" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>228</v>
+      </c>
       <c r="O46" t="s" s="2">
         <v>39</v>
       </c>
@@ -6176,15 +6163,11 @@
       <c r="AD46" t="s" s="2">
         <v>39</v>
       </c>
-      <c r="AE46" t="s" s="2">
-        <v>210</v>
-      </c>
+      <c r="AE46" s="2"/>
       <c r="AF46" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG46" t="s" s="2">
-        <v>41</v>
-      </c>
+      <c r="AG46" s="2"/>
       <c r="AH46" t="s" s="2">
         <v>39</v>
       </c>
@@ -6192,22 +6175,20 @@
         <v>39</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>39</v>
+        <v>229</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>39</v>
+        <v>230</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="B47" t="s" s="2">
-        <v>215</v>
-      </c>
+        <v>231</v>
+      </c>
+      <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
         <v>39</v>
       </c>
@@ -6216,7 +6197,7 @@
         <v>40</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>39</v>
@@ -6225,16 +6206,20 @@
         <v>39</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="K47" s="2"/>
+        <v>232</v>
+      </c>
+      <c r="K47" t="s" s="2">
+        <v>233</v>
+      </c>
       <c r="L47" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="M47" s="2"/>
+        <v>234</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>235</v>
+      </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>39</v>
@@ -6256,16 +6241,16 @@
         <v>39</v>
       </c>
       <c r="V47" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>39</v>
+        <v>172</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>39</v>
+        <v>236</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>39</v>
+        <v>237</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>39</v>
@@ -6283,13 +6268,13 @@
         <v>39</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>210</v>
+        <v>231</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>39</v>
@@ -6298,7 +6283,7 @@
         <v>39</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>39</v>
+        <v>238</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>39</v>
@@ -6309,11 +6294,9 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="B48" t="s" s="2">
-        <v>218</v>
-      </c>
+        <v>239</v>
+      </c>
+      <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
         <v>39</v>
       </c>
@@ -6331,14 +6314,16 @@
         <v>39</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="K48" s="2"/>
+        <v>240</v>
+      </c>
+      <c r="K48" t="s" s="2">
+        <v>241</v>
+      </c>
       <c r="L48" t="s" s="2">
-        <v>220</v>
+        <v>242</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -6362,7 +6347,7 @@
         <v>39</v>
       </c>
       <c r="V48" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="W48" t="s" s="2">
         <v>39</v>
@@ -6389,7 +6374,7 @@
         <v>39</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>210</v>
+        <v>239</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>40</v>
@@ -6404,7 +6389,7 @@
         <v>39</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>39</v>
+        <v>243</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>39</v>
@@ -6415,7 +6400,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>221</v>
+        <v>244</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -6426,7 +6411,7 @@
         <v>40</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>39</v>
@@ -6435,23 +6420,19 @@
         <v>39</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>222</v>
+        <v>50</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>223</v>
+        <v>102</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>226</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="M49" s="2"/>
+      <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
         <v>39</v>
       </c>
@@ -6472,7 +6453,7 @@
         <v>39</v>
       </c>
       <c r="V49" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="W49" t="s" s="2">
         <v>39</v>
@@ -6498,11 +6479,15 @@
       <c r="AD49" t="s" s="2">
         <v>39</v>
       </c>
-      <c r="AE49" s="2"/>
+      <c r="AE49" t="s" s="2">
+        <v>244</v>
+      </c>
       <c r="AF49" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG49" s="2"/>
+      <c r="AG49" t="s" s="2">
+        <v>48</v>
+      </c>
       <c r="AH49" t="s" s="2">
         <v>39</v>
       </c>
@@ -6510,29 +6495,29 @@
         <v>39</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>227</v>
+        <v>204</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>228</v>
+        <v>39</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>229</v>
+        <v>245</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>39</v>
+        <v>87</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>39</v>
@@ -6541,23 +6526,21 @@
         <v>39</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>230</v>
+        <v>89</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>231</v>
+        <v>206</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>233</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
         <v>39</v>
       </c>
@@ -6578,7 +6561,7 @@
         <v>39</v>
       </c>
       <c r="V50" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="W50" t="s" s="2">
         <v>39</v>
@@ -6604,11 +6587,15 @@
       <c r="AD50" t="s" s="2">
         <v>39</v>
       </c>
-      <c r="AE50" s="2"/>
+      <c r="AE50" t="s" s="2">
+        <v>245</v>
+      </c>
       <c r="AF50" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG50" s="2"/>
+      <c r="AG50" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AH50" t="s" s="2">
         <v>39</v>
       </c>
@@ -6616,50 +6603,50 @@
         <v>39</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>234</v>
+        <v>204</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>235</v>
+        <v>39</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>236</v>
+        <v>246</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>39</v>
+        <v>247</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>237</v>
+        <v>88</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>238</v>
+        <v>148</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>239</v>
+        <v>248</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>240</v>
+        <v>91</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
@@ -6685,13 +6672,13 @@
         <v>40</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>176</v>
+        <v>39</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>241</v>
+        <v>39</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>242</v>
+        <v>39</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>39</v>
@@ -6709,13 +6696,13 @@
         <v>39</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>236</v>
+        <v>246</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>39</v>
@@ -6724,7 +6711,7 @@
         <v>39</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>243</v>
+        <v>85</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>39</v>
@@ -6735,7 +6722,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -6746,7 +6733,7 @@
         <v>40</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>39</v>
@@ -6758,13 +6745,13 @@
         <v>49</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -6815,13 +6802,13 @@
         <v>39</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>39</v>
@@ -6830,18 +6817,18 @@
         <v>39</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>39</v>
+        <v>254</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>39</v>
+        <v>255</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -6861,16 +6848,16 @@
         <v>39</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>50</v>
+        <v>115</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>102</v>
+        <v>257</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>208</v>
+        <v>258</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -6897,13 +6884,13 @@
         <v>40</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>39</v>
+        <v>172</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>39</v>
+        <v>259</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>39</v>
+        <v>260</v>
       </c>
       <c r="Z53" t="s" s="2">
         <v>39</v>
@@ -6921,7 +6908,7 @@
         <v>39</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>40</v>
@@ -6936,32 +6923,32 @@
         <v>39</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>209</v>
+        <v>261</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>39</v>
+        <v>262</v>
       </c>
     </row>
-    <row r="54" hidden="true">
+    <row r="54">
       <c r="A54" t="s" s="2">
-        <v>250</v>
+        <v>263</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>87</v>
+        <v>39</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>39</v>
@@ -6970,17 +6957,15 @@
         <v>39</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>88</v>
+        <v>264</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>89</v>
+        <v>265</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>91</v>
-      </c>
+        <v>266</v>
+      </c>
+      <c r="M54" s="2"/>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
         <v>39</v>
@@ -7029,13 +7014,13 @@
         <v>39</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>250</v>
+        <v>263</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>39</v>
@@ -7044,51 +7029,49 @@
         <v>39</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>209</v>
+        <v>267</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>39</v>
+        <v>268</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>39</v>
+        <v>269</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>251</v>
+        <v>270</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>252</v>
+        <v>39</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H55" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I55" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="I55" t="s" s="2">
-        <v>39</v>
-      </c>
       <c r="J55" t="s" s="2">
-        <v>88</v>
+        <v>271</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>152</v>
+        <v>272</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>91</v>
-      </c>
+        <v>273</v>
+      </c>
+      <c r="M55" s="2"/>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
         <v>39</v>
@@ -7137,13 +7120,13 @@
         <v>39</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>251</v>
+        <v>270</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>39</v>
@@ -7152,18 +7135,18 @@
         <v>39</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>85</v>
+        <v>274</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>39</v>
+        <v>275</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>39</v>
+        <v>276</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>254</v>
+        <v>277</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7186,16 +7169,18 @@
         <v>49</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>255</v>
+        <v>278</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>256</v>
+        <v>279</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>257</v>
+        <v>280</v>
       </c>
       <c r="M56" s="2"/>
-      <c r="N56" s="2"/>
+      <c r="N56" t="s" s="2">
+        <v>281</v>
+      </c>
       <c r="O56" t="s" s="2">
         <v>39</v>
       </c>
@@ -7243,7 +7228,7 @@
         <v>39</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>254</v>
+        <v>277</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>40</v>
@@ -7258,18 +7243,18 @@
         <v>39</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>258</v>
+        <v>39</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>259</v>
+        <v>282</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>260</v>
+        <v>39</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>261</v>
+        <v>283</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -7295,12 +7280,14 @@
         <v>115</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>262</v>
+        <v>284</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="M57" s="2"/>
+        <v>285</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>286</v>
+      </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
         <v>39</v>
@@ -7325,13 +7312,13 @@
         <v>40</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>264</v>
+        <v>287</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>265</v>
+        <v>288</v>
       </c>
       <c r="Z57" t="s" s="2">
         <v>39</v>
@@ -7349,7 +7336,7 @@
         <v>39</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>261</v>
+        <v>283</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>40</v>
@@ -7364,18 +7351,18 @@
         <v>39</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>266</v>
+        <v>289</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>267</v>
+        <v>39</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>268</v>
+        <v>290</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -7383,13 +7370,13 @@
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>39</v>
@@ -7398,15 +7385,17 @@
         <v>39</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>269</v>
+        <v>291</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>270</v>
+        <v>292</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="M58" s="2"/>
+        <v>293</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>294</v>
+      </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
         <v>39</v>
@@ -7455,13 +7444,13 @@
         <v>39</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>268</v>
+        <v>290</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>39</v>
@@ -7470,18 +7459,18 @@
         <v>39</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>272</v>
+        <v>295</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>273</v>
+        <v>39</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>274</v>
+        <v>39</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>275</v>
+        <v>296</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -7492,7 +7481,7 @@
         <v>40</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>39</v>
@@ -7501,18 +7490,20 @@
         <v>39</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>276</v>
+        <v>115</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>277</v>
+        <v>297</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="M59" s="2"/>
+        <v>298</v>
+      </c>
+      <c r="M59" t="s" s="2">
+        <v>299</v>
+      </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
         <v>39</v>
@@ -7537,13 +7528,13 @@
         <v>40</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>39</v>
+        <v>172</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>39</v>
+        <v>300</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>39</v>
+        <v>301</v>
       </c>
       <c r="Z59" t="s" s="2">
         <v>39</v>
@@ -7561,13 +7552,13 @@
         <v>39</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>275</v>
+        <v>296</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>39</v>
@@ -7576,18 +7567,18 @@
         <v>39</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>279</v>
+        <v>302</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>280</v>
+        <v>39</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>281</v>
+        <v>39</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>282</v>
+        <v>303</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -7598,7 +7589,7 @@
         <v>40</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>39</v>
@@ -7607,21 +7598,19 @@
         <v>39</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>283</v>
+        <v>115</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>284</v>
+        <v>304</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>285</v>
+        <v>305</v>
       </c>
       <c r="M60" s="2"/>
-      <c r="N60" t="s" s="2">
-        <v>286</v>
-      </c>
+      <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
         <v>39</v>
       </c>
@@ -7645,13 +7634,13 @@
         <v>40</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>39</v>
+        <v>172</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>39</v>
+        <v>306</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>39</v>
+        <v>307</v>
       </c>
       <c r="Z60" t="s" s="2">
         <v>39</v>
@@ -7669,13 +7658,13 @@
         <v>39</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>282</v>
+        <v>303</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>39</v>
@@ -7684,10 +7673,10 @@
         <v>39</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>39</v>
+        <v>308</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>287</v>
+        <v>39</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>39</v>
@@ -7695,7 +7684,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>288</v>
+        <v>309</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -7715,20 +7704,18 @@
         <v>39</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>115</v>
+        <v>310</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>289</v>
+        <v>311</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>291</v>
-      </c>
+        <v>312</v>
+      </c>
+      <c r="M61" s="2"/>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
         <v>39</v>
@@ -7753,13 +7740,13 @@
         <v>40</v>
       </c>
       <c r="W61" t="s" s="2">
-        <v>176</v>
+        <v>39</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>292</v>
+        <v>39</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>293</v>
+        <v>39</v>
       </c>
       <c r="Z61" t="s" s="2">
         <v>39</v>
@@ -7777,7 +7764,7 @@
         <v>39</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>288</v>
+        <v>309</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>40</v>
@@ -7792,7 +7779,7 @@
         <v>39</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>294</v>
+        <v>39</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>39</v>
@@ -7803,7 +7790,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>295</v>
+        <v>313</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -7826,17 +7813,15 @@
         <v>39</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>296</v>
+        <v>314</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>297</v>
+        <v>315</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>299</v>
-      </c>
+        <v>316</v>
+      </c>
+      <c r="M62" s="2"/>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
         <v>39</v>
@@ -7885,7 +7870,7 @@
         <v>39</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>295</v>
+        <v>313</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>40</v>
@@ -7900,18 +7885,18 @@
         <v>39</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>300</v>
+        <v>317</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>39</v>
+        <v>318</v>
       </c>
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>301</v>
+        <v>319</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -7922,7 +7907,7 @@
         <v>40</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>39</v>
@@ -7934,17 +7919,15 @@
         <v>39</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>115</v>
+        <v>240</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>302</v>
+        <v>320</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>304</v>
-      </c>
+        <v>321</v>
+      </c>
+      <c r="M63" s="2"/>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
         <v>39</v>
@@ -7969,13 +7952,13 @@
         <v>40</v>
       </c>
       <c r="W63" t="s" s="2">
-        <v>176</v>
+        <v>39</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>305</v>
+        <v>39</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>306</v>
+        <v>39</v>
       </c>
       <c r="Z63" t="s" s="2">
         <v>39</v>
@@ -7993,7 +7976,7 @@
         <v>39</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>301</v>
+        <v>319</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>40</v>
@@ -8008,7 +7991,7 @@
         <v>39</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>307</v>
+        <v>39</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>39</v>
@@ -8019,7 +8002,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>308</v>
+        <v>322</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8030,7 +8013,7 @@
         <v>40</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>39</v>
@@ -8042,13 +8025,13 @@
         <v>39</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>115</v>
+        <v>50</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>309</v>
+        <v>102</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>310</v>
+        <v>203</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
@@ -8075,13 +8058,13 @@
         <v>40</v>
       </c>
       <c r="W64" t="s" s="2">
-        <v>176</v>
+        <v>39</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>311</v>
+        <v>39</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>312</v>
+        <v>39</v>
       </c>
       <c r="Z64" t="s" s="2">
         <v>39</v>
@@ -8099,13 +8082,13 @@
         <v>39</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>308</v>
+        <v>322</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>39</v>
@@ -8114,7 +8097,7 @@
         <v>39</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>313</v>
+        <v>204</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>39</v>
@@ -8125,18 +8108,18 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
-        <v>39</v>
+        <v>87</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>39</v>
@@ -8148,15 +8131,17 @@
         <v>39</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>315</v>
+        <v>88</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>316</v>
+        <v>89</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="M65" s="2"/>
+        <v>206</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>91</v>
+      </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
         <v>39</v>
@@ -8205,13 +8190,13 @@
         <v>39</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>39</v>
@@ -8220,7 +8205,7 @@
         <v>39</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>39</v>
+        <v>204</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>39</v>
@@ -8231,11 +8216,11 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>39</v>
+        <v>247</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
@@ -8248,21 +8233,23 @@
         <v>39</v>
       </c>
       <c r="H66" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="I66" t="s" s="2">
         <v>39</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>319</v>
+        <v>88</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>320</v>
+        <v>148</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="M66" s="2"/>
+        <v>248</v>
+      </c>
+      <c r="M66" t="s" s="2">
+        <v>91</v>
+      </c>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
         <v>39</v>
@@ -8311,7 +8298,7 @@
         <v>39</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>40</v>
@@ -8326,18 +8313,18 @@
         <v>39</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>322</v>
+        <v>85</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>323</v>
+        <v>39</v>
       </c>
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -8348,7 +8335,7 @@
         <v>40</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>39</v>
@@ -8360,13 +8347,13 @@
         <v>39</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>245</v>
+        <v>115</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" s="2"/>
@@ -8393,13 +8380,13 @@
         <v>40</v>
       </c>
       <c r="W67" t="s" s="2">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>39</v>
+        <v>328</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>39</v>
+        <v>329</v>
       </c>
       <c r="Z67" t="s" s="2">
         <v>39</v>
@@ -8417,13 +8404,13 @@
         <v>39</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="AH67" t="s" s="2">
         <v>39</v>
@@ -8443,7 +8430,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -8451,7 +8438,7 @@
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="F68" t="s" s="2">
         <v>48</v>
@@ -8466,13 +8453,13 @@
         <v>39</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>50</v>
+        <v>331</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>102</v>
+        <v>332</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>208</v>
+        <v>333</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
@@ -8523,10 +8510,10 @@
         <v>39</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>48</v>
@@ -8538,7 +8525,7 @@
         <v>39</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>209</v>
+        <v>39</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>39</v>
@@ -8549,11 +8536,11 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
-        <v>87</v>
+        <v>39</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
@@ -8572,18 +8559,20 @@
         <v>39</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>88</v>
+        <v>335</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>89</v>
+        <v>336</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>211</v>
+        <v>337</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="N69" s="2"/>
+        <v>338</v>
+      </c>
+      <c r="N69" t="s" s="2">
+        <v>339</v>
+      </c>
       <c r="O69" t="s" s="2">
         <v>39</v>
       </c>
@@ -8631,7 +8620,7 @@
         <v>39</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>40</v>
@@ -8646,447 +8635,17 @@
         <v>39</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>209</v>
+        <v>39</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="70" hidden="true">
-      <c r="A70" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="B70" s="2"/>
-      <c r="C70" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="D70" s="2"/>
-      <c r="E70" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F70" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="G70" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="H70" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="I70" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="J70" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K70" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="L70" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="N70" s="2"/>
-      <c r="O70" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="P70" s="2"/>
-      <c r="Q70" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="R70" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="S70" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="T70" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="U70" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="V70" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W70" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="X70" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Y70" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Z70" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA70" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB70" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC70" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD70" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE70" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="AF70" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG70" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AH70" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI70" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ70" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AK70" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AL70" t="s" s="2">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="71" hidden="true">
-      <c r="A71" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="B71" s="2"/>
-      <c r="C71" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="D71" s="2"/>
-      <c r="E71" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F71" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="G71" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="H71" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="I71" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="J71" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="K71" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="L71" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="M71" s="2"/>
-      <c r="N71" s="2"/>
-      <c r="O71" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="P71" s="2"/>
-      <c r="Q71" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="R71" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="S71" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="T71" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="U71" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="V71" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W71" t="s" s="2">
-        <v>68</v>
-      </c>
-      <c r="X71" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="Y71" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="Z71" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA71" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB71" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC71" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD71" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE71" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="AF71" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG71" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AH71" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI71" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ71" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AK71" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AL71" t="s" s="2">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="72" hidden="true">
-      <c r="A72" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="B72" s="2"/>
-      <c r="C72" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="D72" s="2"/>
-      <c r="E72" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="F72" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="G72" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="H72" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="I72" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="J72" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="K72" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="L72" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="M72" s="2"/>
-      <c r="N72" s="2"/>
-      <c r="O72" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="P72" s="2"/>
-      <c r="Q72" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="R72" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="S72" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="T72" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="U72" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="V72" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W72" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="X72" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Y72" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Z72" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA72" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB72" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC72" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD72" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE72" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="AF72" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AG72" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AH72" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI72" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ72" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AK72" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AL72" t="s" s="2">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="73" hidden="true">
-      <c r="A73" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="B73" s="2"/>
-      <c r="C73" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="D73" s="2"/>
-      <c r="E73" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F73" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="G73" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="H73" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="I73" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="J73" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="K73" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="L73" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="M73" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="O73" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="P73" s="2"/>
-      <c r="Q73" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="R73" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="S73" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="T73" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="U73" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="V73" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W73" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="X73" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Y73" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Z73" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA73" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB73" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC73" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD73" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE73" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="AF73" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG73" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AH73" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI73" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ73" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AK73" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AL73" t="s" s="2">
         <v>39</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AL73">
+  <autoFilter ref="A1:AL69">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -9096,7 +8655,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI72">
+  <conditionalFormatting sqref="A2:AI68">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/docs/mcode/onco-core-CancerRelatedRadiationProcedure.xlsx
+++ b/docs/mcode/onco-core-CancerRelatedRadiationProcedure.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AL$69</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AL$80</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2291" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2647" uniqueCount="391">
   <si>
     <t>Path</t>
   </si>
@@ -146,7 +146,8 @@
     <t>onco-core-CancerRelatedRadiationProcedure</t>
   </si>
   <si>
-    <t>A radiological treatment addressing a cancer condition. The scope of this profile has been narrowed to cancer-related procedures by constraining the ReasonReference and ReasonCode to cancer conditions.</t>
+    <t>A radiological treatment addressing a cancer condition. The scope of this profile has been narrowed to cancer-related procedures by constraining the ReasonReference and ReasonCode to cancer conditions.
+Conformance note: If an ICD-10-PCS code is used in the code attribute, and there is a semantically equivalent SNOMED CT or CPT code, the resulting Procedure instance will not be compliant with [US Core Profiles](http://hl7.org/fhir/us/core/STU3/index.html)</t>
   </si>
   <si>
     <t xml:space="preserve">pro-1:Reason not performed is only permitted if notPerformed indicator is true {null}
@@ -168,7 +169,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">id {[]} {[]}
+    <t xml:space="preserve">id
 </t>
   </si>
   <si>
@@ -184,7 +185,7 @@
     <t>Procedure.meta</t>
   </si>
   <si>
-    <t xml:space="preserve">Meta {[]} {[]}
+    <t xml:space="preserve">Meta
 </t>
   </si>
   <si>
@@ -194,13 +195,146 @@
     <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content may not always be associated with version changes to the resource.</t>
   </si>
   <si>
+    <t>Procedure.meta.id</t>
+  </si>
+  <si>
+    <t>xml:id (or equivalent in JSON)</t>
+  </si>
+  <si>
+    <t>unique id for the element within a resource (for internal references).</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Procedure.meta.extension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Additional Content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>sourcesystem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://mcodeinitiative.org/us/mcode/StructureDefinition/obf-SourceSystem-extension}
+</t>
+  </si>
+  <si>
+    <t>FHIR: This provides a minimal amount of Provenance information that can be used to track or differentiate the source of information in the resource. The source may identify another FHIR server, document, message, database, etc.
+FHIM: Identifies the computer system that created the medical record. This optional field may also be used to indicate that the medical record was originally created by a different organization from the one that is currently storing or utilizing the record in that the assigning authority of the Id could be set to that originating organization. This property is optional, as some systems will assume that all records that it contains originated in that system, however it is anticipated that it will become increasingly commonplace for records from multiple systems and organizations will be comingled in order to provide a complete picture of the patient's health record.</t>
+  </si>
+  <si>
+    <t>Procedure.meta.versionId</t>
+  </si>
+  <si>
+    <t>Version specific identifier</t>
+  </si>
+  <si>
+    <t>The version specific identifier, as it appears in the version portion of the URL. This values changes when the resource is created, updated, or deleted.</t>
+  </si>
+  <si>
+    <t>The server assigns this value, and ignores what the client specifies, except in the case that the server is imposing version integrity on updates/deletes.</t>
+  </si>
+  <si>
+    <t>Procedure.meta.lastUpdated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">instant
+</t>
+  </si>
+  <si>
+    <t>When the resource version last changed</t>
+  </si>
+  <si>
+    <t>When the resource last changed - e.g. when the version changed.</t>
+  </si>
+  <si>
+    <t>This value is always populated except when the resource is first being created. The server / resource manager sets this value; what a client provides is irrelevant.</t>
+  </si>
+  <si>
+    <t>Procedure.meta.profile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uri
+</t>
+  </si>
+  <si>
+    <t>Profiles this resource claims to conform to</t>
+  </si>
+  <si>
+    <t>A list of profiles [[[StructureDefinition]]]s that this resource claims to conform to. The URL is a reference to [[[StructureDefinition.url]]].</t>
+  </si>
+  <si>
+    <t>It is up to the server and/or other infrastructure of policy to determine whether/how these claims are verified and/or updated over time.  The list of profile URLs is a set.</t>
+  </si>
+  <si>
+    <t>Procedure.meta.security</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coding
+</t>
+  </si>
+  <si>
+    <t>Security Labels applied to this resource</t>
+  </si>
+  <si>
+    <t>Security labels applied to this resource. These tags connect specific resources to the overall security policy and infrastructure.</t>
+  </si>
+  <si>
+    <t>The security labels can be updated without changing the stated version of the resource  The list of security labels is a set. Uniqueness is based the system/code, and version and display are ignored.</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>Security Labels from the Healthcare Privacy and Security Classification System.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/security-labels</t>
+  </si>
+  <si>
+    <t>Procedure.meta.tag</t>
+  </si>
+  <si>
+    <t>Tags applied to this resource</t>
+  </si>
+  <si>
+    <t>Tags applied to this resource. Tags are intended to be used to identify and relate resources to process and workflow, and applications are not required to consider the tags when interpreting the meaning of a resource.</t>
+  </si>
+  <si>
+    <t>The tags can be updated without changing the stated version of the resource.  The list of tags is a set. Uniqueness is based the system/code, and version and display are ignored.</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>Codes that represent various types of tags, commonly workflow-related; e.g. "Needs review by Dr. Jones"</t>
+  </si>
+  <si>
     <t>Procedure.implicitRules</t>
   </si>
   <si>
-    <t xml:space="preserve">uri {[]} {[]}
-</t>
-  </si>
-  <si>
     <t>A set of rules under which this content was created</t>
   </si>
   <si>
@@ -213,7 +347,7 @@
     <t>Procedure.language</t>
   </si>
   <si>
-    <t xml:space="preserve">code {[]} {[]}
+    <t xml:space="preserve">code
 </t>
   </si>
   <si>
@@ -242,7 +376,7 @@
 htmlxhtmldisplay</t>
   </si>
   <si>
-    <t xml:space="preserve">Narrative {[]} {[]}
+    <t xml:space="preserve">Narrative
 </t>
   </si>
   <si>
@@ -269,7 +403,7 @@
 anonymous resourcescontained resources</t>
   </si>
   <si>
-    <t xml:space="preserve">Resource {[]} {[]}
+    <t xml:space="preserve">Resource
 </t>
   </si>
   <si>
@@ -288,326 +422,309 @@
     <t>Procedure.extension</t>
   </si>
   <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {[]} {[]}
+    <t>May be used to represent additional information that is not part of the basic definition of the resource. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>procedurepartof</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://mcodeinitiative.org/us/mcode/StructureDefinition/obf-ProcedurePartOf-extension}
 </t>
   </si>
   <si>
-    <t>Additional Content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
+    <t>A larger event of which this particular procedure is a component or step.</t>
+  </si>
+  <si>
+    <t>statusreason</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://mcodeinitiative.org/us/mcode/StructureDefinition/obf-StatusReason-extension}
 </t>
   </si>
   <si>
-    <t>open</t>
+    <t>Captures the reason for the current state of the procedure.</t>
+  </si>
+  <si>
+    <t>complicationreference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://mcodeinitiative.org/us/mcode/StructureDefinition/obf-ComplicationReference-extension}
+</t>
+  </si>
+  <si>
+    <t>Complication following the procedure, as a reference to a Condition.</t>
+  </si>
+  <si>
+    <t>usedcode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://mcodeinitiative.org/us/mcode/StructureDefinition/obf-UsedCode-extension}
+</t>
+  </si>
+  <si>
+    <t>Item used during an activity, represented as a code.</t>
   </si>
   <si>
     <t>statementdatetime</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-StatementDateTime-extension]]} {[]}
+    <t xml:space="preserve">Extension {http://mcodeinitiative.org/us/mcode/StructureDefinition/obf-StatementDateTime-extension}
 </t>
   </si>
   <si>
     <t>The point in time when the statement was created.</t>
   </si>
   <si>
-    <t>reasoncode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-ReasonCode-extension]]} {[]}
+    <t>occurrencetimeorperiod</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://mcodeinitiative.org/us/mcode/StructureDefinition/obf-datatype-OccurrenceTimeOrPeriod-extension}
 </t>
   </si>
   <si>
-    <t>The justification, as a code.
-Reason is a string or CodeableConcept in DSTU2 but in later versions only a CodeableConcept, so we are not going to support a string.</t>
+    <t>The point or period of time when the event takes place. Times can be precise (dateTime) or approximate (date). If a time period is used, and the start date or dateTime is missing, the start of the period is not known. If the end date or dateTime is missing, it means that the period is ongoing.</t>
+  </si>
+  <si>
+    <t>personauthor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://mcodeinitiative.org/us/mcode/StructureDefinition/obf-PersonAuthor-extension}
+</t>
+  </si>
+  <si>
+    <t>A human author, patient, practitioner, or related person, as opposed to an organization or device.</t>
+  </si>
+  <si>
+    <t>personinformationsource</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://mcodeinitiative.org/us/mcode/StructureDefinition/obf-PersonInformationSource-extension}
+</t>
+  </si>
+  <si>
+    <t>The person who provided the information, not necessarily the patient.</t>
+  </si>
+  <si>
+    <t>treatmentintent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://mcodeinitiative.org/us/mcode/StructureDefinition/obf-TreatmentIntent-extension}
+</t>
+  </si>
+  <si>
+    <t>The purpose of a treatment.</t>
+  </si>
+  <si>
+    <t>radiationdoseperfraction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://mcodeinitiative.org/us/mcode/StructureDefinition/obf-RadiationDosePerFraction-extension}
+</t>
+  </si>
+  <si>
+    <t>The amount of radiation administered during a single session (fraction) of radiation therapy therapy.</t>
+  </si>
+  <si>
+    <t>radiationfractionsdelivered</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://mcodeinitiative.org/us/mcode/StructureDefinition/obf-RadiationFractionsDelivered-extension}
+</t>
+  </si>
+  <si>
+    <t>Records the total number of treatment sessions (fractions) administered during the first course of therapy. Corresponds to LOINC 21950-2 'Number of radiation treatment' [sic].</t>
+  </si>
+  <si>
+    <t>totalradiationdosedelivered</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://mcodeinitiative.org/us/mcode/StructureDefinition/obf-TotalRadiationDoseDelivered-extension}
+</t>
+  </si>
+  <si>
+    <t>The total amount of radiation dose delivered for the course of therapy. (source: SNOMED, ASTRO)</t>
+  </si>
+  <si>
+    <t>terminationreason</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://mcodeinitiative.org/us/mcode/StructureDefinition/obf-TerminationReason-extension}
+</t>
+  </si>
+  <si>
+    <t>A code explaining unplanned or premature termination of a plan of treatment, course of medication, or research study.</t>
   </si>
   <si>
     <t>Procedure.extension.id</t>
   </si>
   <si>
-    <t xml:space="preserve">string {[]} {[]}
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>Procedure.extension.extension</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>Procedure.extension.url</t>
+  </si>
+  <si>
+    <t>identifies the meaning of the extension</t>
+  </si>
+  <si>
+    <t>Source of the definition for the extension code - a logical name or a URL.</t>
+  </si>
+  <si>
+    <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition should be version specific.  This will ideally be the URI for the Resource Profile defining the extension, with the code for the extension after a #.</t>
+  </si>
+  <si>
+    <t>http://mcodeinitiative.org/us/mcode/StructureDefinition/obf-TerminationReason-extension</t>
+  </si>
+  <si>
+    <t>Extension.url</t>
+  </si>
+  <si>
+    <t>Procedure.extension.valueCodeableConcept</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
 </t>
   </si>
   <si>
-    <t>xml:id (or equivalent in JSON)</t>
-  </si>
-  <si>
-    <t>unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>Procedure.extension.extension</t>
-  </si>
-  <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
-  </si>
-  <si>
-    <t>Procedure.extension.url</t>
-  </si>
-  <si>
-    <t>identifies the meaning of the extension</t>
-  </si>
-  <si>
-    <t>Source of the definition for the extension code - a logical name or a URL.</t>
-  </si>
-  <si>
-    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-ReasonCode-extension"/&gt;</t>
-  </si>
-  <si>
-    <t>Extension.url</t>
-  </si>
-  <si>
-    <t>Procedure.extension.valueCodeableConcept</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CodeableConcept {[]} {[]}
+    <t>Value of extension</t>
+  </si>
+  <si>
+    <t>Value of extension - may be a resource or one of a constrained set of the data types (see Extensibility in the spec for list).</t>
+  </si>
+  <si>
+    <t>http://mcodeinitiative.org/us/mcode/ValueSet/obf-TreatmentTerminationReasonVS</t>
+  </si>
+  <si>
+    <t>Extension.value[x]</t>
+  </si>
+  <si>
+    <t>Procedure.modifierExtension</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource, and that modifies the understanding of the element that contains it. Usually modifier elements provide negation or qualification. In order to make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.</t>
+  </si>
+  <si>
+    <t>Procedure.identifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifier
 </t>
   </si>
   <si>
-    <t>Value of extension</t>
-  </si>
-  <si>
-    <t>Value of extension - may be a resource or one of a constrained set of the data types (see Extensibility in the spec for list).</t>
-  </si>
-  <si>
-    <t>extensible</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/mcode/onco/core/vs/CancerDisorderVS</t>
-  </si>
-  <si>
-    <t>Extension.value[x]</t>
-  </si>
-  <si>
-    <t>cancerreasonreference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/onco-core-CancerReasonReference-extension]]} {[]}
+    <t>External Identifiers for this procedure</t>
+  </si>
+  <si>
+    <t>This records identifiers associated with this procedure that are defined by business processes and/or used to refer to it when a direct URL reference to the resource itself is not appropriate (e.g. in CDA documents, or in written / printed documentation).</t>
+  </si>
+  <si>
+    <t>Need to allow connection to a wider workflow.</t>
+  </si>
+  <si>
+    <t>.id</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>Some combination of ORC-2 / ORC-3 / OBR-2 / OBR-3 / IPC-1 / IPC-2 / IPC-3 / IPC-4</t>
+  </si>
+  <si>
+    <t>Procedure.subject</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(http://mcodeinitiative.org/us/mcode/StructureDefinition/obf-Patient)
 </t>
   </si>
   <si>
-    <t>Reference to a primary or secondary cancer condition.</t>
-  </si>
-  <si>
-    <t>partof</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-PartOf-extension]]} {[]}
+    <t>Who the procedure was performed on</t>
+  </si>
+  <si>
+    <t>The person, animal or group on which the procedure was performed.</t>
+  </si>
+  <si>
+    <t>.participation[typeCode=SBJ].role</t>
+  </si>
+  <si>
+    <t>who.focus</t>
+  </si>
+  <si>
+    <t>PID-3</t>
+  </si>
+  <si>
+    <t>Procedure.status</t>
+  </si>
+  <si>
+    <t>in-progress | aborted | completed | entered-in-error</t>
+  </si>
+  <si>
+    <t>A code specifying the state of the procedure. Generally this will be in-progress or completed state.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/procedure-status</t>
+  </si>
+  <si>
+    <t>Procedure.category</t>
+  </si>
+  <si>
+    <t>Classification of the procedure</t>
+  </si>
+  <si>
+    <t>A code that classifies the procedure for searching, sorting and display purposes (e.g. "Surgical Procedure").</t>
+  </si>
+  <si>
+    <t>A code that classifies a procedure for searching, sorting and display purposes.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/procedure-category</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode="COMP].target[classCode="LIST", moodCode="EVN"].code</t>
+  </si>
+  <si>
+    <t>Procedure.code</t>
+  </si>
+  <si>
+    <t>SNOMED-CT | ICD-10 | CPT-4</t>
+  </si>
+  <si>
+    <t>The specific procedure that is performed. Use text if the exact nature of the procedure cannot be coded (e.g. "Laparoscopic Appendectomy").</t>
+  </si>
+  <si>
+    <t>http://mcodeinitiative.org/us/mcode/ValueSet/obf-RadiationProcedureVS</t>
+  </si>
+  <si>
+    <t>.code</t>
+  </si>
+  <si>
+    <t>class</t>
+  </si>
+  <si>
+    <t>OBR-44/OBR-45</t>
+  </si>
+  <si>
+    <t>Procedure.notPerformed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boolean
 </t>
   </si>
   <si>
-    <t>The larger entity that the asserted item is a portion of. For example, an organization part of a larger organization, or an encounter with a hospitalist might be part of a larger hospitalization encounter.</t>
-  </si>
-  <si>
-    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-PartOf-extension"/&gt;</t>
-  </si>
-  <si>
-    <t>Procedure.extension.valueReference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Procedure]]}
-</t>
-  </si>
-  <si>
-    <t>A procedure that has been performed.</t>
-  </si>
-  <si>
-    <t>treatmentintent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-TreatmentIntent-extension]]} {[]}
-</t>
-  </si>
-  <si>
-    <t>The purpose of a treatment.</t>
-  </si>
-  <si>
-    <t>radiationdoseperfraction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-RadiationDosePerFraction-extension]]} {[]}
-</t>
-  </si>
-  <si>
-    <t>The total number of treatment sessions (fractions) administered during a course of radiation therapy therapy. A fraction is a portion of the total radiation dose, delivered as a series of treatments that make up the full course of radiotherapy. (source: LOINC)</t>
-  </si>
-  <si>
-    <t>radiationfractionsdelivered</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-RadiationFractionsDelivered-extension]]} {[]}
-</t>
-  </si>
-  <si>
-    <t>totalradiationdosedelivered</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-TotalRadiationDoseDelivered-extension]]} {[]}
-</t>
-  </si>
-  <si>
-    <t>The total amount of radiation dose delivered for the course of therapy. (source: SNOMED, ASTRO)</t>
-  </si>
-  <si>
-    <t>terminationreason</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-TerminationReason-extension]]} {[]}
-</t>
-  </si>
-  <si>
-    <t>A code explaining unplanned or premature termination of a plan of treatment, course of medication, or research study.</t>
-  </si>
-  <si>
-    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-TerminationReason-extension"/&gt;</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/mcode/shr/core/vs/TreatmentTerminationReasonVS</t>
-  </si>
-  <si>
-    <t>Procedure.modifierExtension</t>
-  </si>
-  <si>
-    <t>Extensions that cannot be ignored</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource, and that modifies the understanding of the element that contains it. Usually modifier elements provide negation or qualification. In order to make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.</t>
-  </si>
-  <si>
-    <t>Procedure.identifier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identifier {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>External Identifiers for this procedure</t>
-  </si>
-  <si>
-    <t>This records identifiers associated with this procedure that are defined by business processes and/or used to refer to it when a direct URL reference to the resource itself is not appropriate (e.g. in CDA documents, or in written / printed documentation).</t>
-  </si>
-  <si>
-    <t>Need to allow connection to a wider workflow.</t>
-  </si>
-  <si>
-    <t>.id</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>Some combination of ORC-2 / ORC-3 / OBR-2 / OBR-3 / IPC-1 / IPC-2 / IPC-3 / IPC-4</t>
-  </si>
-  <si>
-    <t>Procedure.subject</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Patient]]}
-</t>
-  </si>
-  <si>
-    <t>Who the procedure was performed on</t>
-  </si>
-  <si>
-    <t>The person, animal or group on which the procedure was performed.</t>
-  </si>
-  <si>
-    <t>.participation[typeCode=SBJ].role</t>
-  </si>
-  <si>
-    <t>who.focus</t>
-  </si>
-  <si>
-    <t>PID-3</t>
-  </si>
-  <si>
-    <t>Procedure.status</t>
-  </si>
-  <si>
-    <t>in-progress | aborted | completed | entered-in-error</t>
-  </si>
-  <si>
-    <t>A code specifying the state of the procedure. Generally this will be in-progress or completed state.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/procedure-status</t>
-  </si>
-  <si>
-    <t>Procedure.category</t>
-  </si>
-  <si>
-    <t>Classification of the procedure</t>
-  </si>
-  <si>
-    <t>A code that classifies the procedure for searching, sorting and display purposes (e.g. "Surgical Procedure").</t>
-  </si>
-  <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>A code that classifies a procedure for searching, sorting and display purposes.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/procedure-category</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode="COMP].target[classCode="LIST", moodCode="EVN"].code</t>
-  </si>
-  <si>
-    <t>Procedure.code</t>
-  </si>
-  <si>
-    <t>SNOMED-CT | ICD-10 | CPT-4</t>
-  </si>
-  <si>
-    <t>The specific procedure that is performed. Use text if the exact nature of the procedure cannot be coded (e.g. "Laparoscopic Appendectomy").</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/mcode/shr/core/vs/RadiationProcedureVS</t>
-  </si>
-  <si>
-    <t>.code</t>
-  </si>
-  <si>
-    <t>class</t>
-  </si>
-  <si>
-    <t>OBR-44/OBR-45</t>
-  </si>
-  <si>
-    <t>Procedure.notPerformed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">boolean {[]} {[]}
-</t>
-  </si>
-  <si>
     <t>True if procedure was not performed as scheduled</t>
   </si>
   <si>
     <t>Set this to true if the record is saying that the procedure was NOT performed.</t>
   </si>
   <si>
-    <t>&lt;valueBoolean xmlns="http://hl7.org/fhir" value="false"/&gt;</t>
+    <t>false</t>
   </si>
   <si>
     <t>.actionNegationInd</t>
@@ -644,7 +761,7 @@
     <t>Detailed and structured anatomical location information. Multiple locations are allowed - e.g. multiple punch biopsies of a lesion.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/mcode/shr/core/vs/RadiationTargetBodySiteVS</t>
+    <t>http://mcodeinitiative.org/us/mcode/ValueSet/obf-RadiationTargetBodySiteVS</t>
   </si>
   <si>
     <t>.targetSiteCode</t>
@@ -656,56 +773,47 @@
     <t>Procedure.bodySite.id</t>
   </si>
   <si>
-    <t>unique id for the element within a resource (for internal references).</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>Procedure.bodySite.extension</t>
   </si>
   <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
     <t>laterality</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Laterality-extension]]} {[]}
+    <t xml:space="preserve">Extension {http://mcodeinitiative.org/us/mcode/StructureDefinition/obf-datatype-Laterality-extension}
 </t>
   </si>
   <si>
     <t>Body side of the body location, if needed to distinguish from a similar location on the other side of the body.
 The laterality element is part of BodyLocation, a flexible structure that allows the location to be determined by a single code, or a code plus laterality and/or orientation. The body location can also be specified in relation to one or more body landmarks. SNOMED CT is used in all cases.
-+ Code only: The code should include (precoordinate) laterality and/orientation to the degree necessary to completely specify the body location.
-+ Code plus laterality and/or orientation: The basic code augmented by codes specifying the body side and/or anatomical orientation.
-+ Relation to landmark: The location relative to a landmark is specified by:
-- Establishing the location and type of landmark using a body site code and optional laterality/orientation, and
-- Specifying the direction and distance from the landmark to the body location.
+* Code only: The code should include (precoordinate) laterality and/orientation to the degree necessary to completely specify the body location.
+* Code plus laterality and/or orientation: The basic code augmented by codes specifying the body side and/or anatomical orientation.
+* Relation to landmark: The location relative to a landmark is specified by:
+1. Establishing the location and type of landmark using a body site code and optional laterality/orientation, and
+2. Specifying the direction and distance from the landmark to the body location.
 Note that BodyLocation is a data type (a reusable structure), not a stand-alone entity. The concept is similar to how a postal address can apply to a person, location, or organization. This contrasts with FHIR's stand-alone BodySite (aka BodyStructure in r4) which 'is not ... intended for describing the type of anatomical location but rather a specific body site on a specific patient' (FHIR 3.5).</t>
   </si>
   <si>
-    <t>orientation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Orientation-extension]]} {[]}
+    <t>anatomicalorientation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://mcodeinitiative.org/us/mcode/StructureDefinition/obf-datatype-AnatomicalOrientation-extension}
 </t>
   </si>
   <si>
-    <t>Orientation of the body location, if needed to distinguish from a similar location in another orientation.
+    <t>AnatomicalOrientation of the body location, if needed to distinguish from a similar location in another orientation.
 The orientation element is part of BodyLocation, a flexible structure that allows the location to be determined by a single code, or a code plus laterality and/or orientation. The body location can also be specified in relation to one or more body landmarks. SNOMED CT is used in all cases.
-+ Code only: The code should include (precoordinate) laterality and/orientation to the degree necessary to completely specify the body location.
-+ Code plus laterality and/or orientation: The basic code augmented by codes specifying the body side and/or anatomical orientation.
-+ Relation to landmark: The location relative to a landmark is specified by:
-- Establishing the location and type of landmark using a body site code and optional laterality/orientation, and
-- Specifying the direction and distance from the landmark to the body location.
+* Code only: The code should include (precoordinate) laterality and/orientation to the degree necessary to completely specify the body location.
+* Code plus laterality and/or orientation: The basic code augmented by codes specifying the body side and/or anatomical orientation.
+* Relation to landmark: The location relative to a landmark is specified by:
+1. Establishing the location and type of landmark using a body site code and optional laterality/orientation, and
+2. Specifying the direction and distance from the landmark to the body location.
 Note that BodyLocation is a data type (a reusable structure), not a stand-alone entity. The concept is similar to how a postal address can apply to a person, location, or organization. This contrasts with FHIR's stand-alone BodySite (aka BodyStructure in r4) which 'is not ... intended for describing the type of anatomical location but rather a specific body site on a specific patient' (FHIR 3.5).</t>
   </si>
   <si>
     <t>relationtolandmark</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-RelationToLandmark-extension]]} {[]}
+    <t xml:space="preserve">Extension {http://mcodeinitiative.org/us/mcode/StructureDefinition/obf-datatype-RelationToLandmark-extension}
 </t>
   </si>
   <si>
@@ -714,42 +822,42 @@
 * Specifying the direction from the landmark to the body location, and
 * Specifying the distance from the landmark to the body location.
 The RelationToLandmark element is part of BodyLocation, a flexible structure that allows the location to be determined by a single code, or a code plus laterality and/or orientation. The body location can also be specified in relation to one or more body landmarks. SNOMED CT is used in all cases.
-+ Code only: The code should include (precoordinate) laterality and/orientation to the degree necessary to completely specify the body location.
-+ Code plus laterality and/or orientation: The basic code augmented by codes specifying the body side and/or anatomical orientation.
-+ Relation to landmark: The location relative to a landmark is specified by:
-- Establishing the location and type of landmark using a body site code and optional laterality/orientation, and
-- Specifying the direction and distance from the landmark to the body location.
+* Code only: The code should include (precoordinate) laterality and/orientation to the degree necessary to completely specify the body location.
+* Code plus laterality and/or orientation: The basic code augmented by codes specifying the body side and/or anatomical orientation.
+* Relation to landmark: The location relative to a landmark is specified by:
+1. Establishing the location and type of landmark using a body site code and optional laterality/orientation, and
+2. Specifying the direction and distance from the landmark to the body location.
 Note that BodyLocation is a data type (a reusable structure), not a stand-alone entity. The concept is similar to how a postal address can apply to a person, location, or organization. This contrasts with FHIR's stand-alone BodySite (aka BodyStructure in r4) which 'is not ... intended for describing the type of anatomical location but rather a specific body site on a specific patient' (FHIR 3.5).</t>
   </si>
   <si>
     <t>Procedure.bodySite.coding</t>
   </si>
   <si>
-    <t xml:space="preserve">Coding {[]} {[]}
+    <t>Code defined by a terminology system</t>
+  </si>
+  <si>
+    <t>A reference to a code defined by a terminology system.</t>
+  </si>
+  <si>
+    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labelled as UserSelected = true.</t>
+  </si>
+  <si>
+    <t>Allows for translations and alternate encodings within a code system.  Also supports communication of the same instance to systems requiring different encodings.</t>
+  </si>
+  <si>
+    <t>union(., ./translation)</t>
+  </si>
+  <si>
+    <t>C*E.1-8, C*E.10-22</t>
+  </si>
+  <si>
+    <t>Procedure.bodySite.text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
 </t>
   </si>
   <si>
-    <t>Code defined by a terminology system</t>
-  </si>
-  <si>
-    <t>A reference to a code defined by a terminology system.</t>
-  </si>
-  <si>
-    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labelled as UserSelected = true.</t>
-  </si>
-  <si>
-    <t>Allows for translations and alternate encodings within a code system.  Also supports communication of the same instance to systems requiring different encodings.</t>
-  </si>
-  <si>
-    <t>union(., ./translation)</t>
-  </si>
-  <si>
-    <t>C*E.1-8, C*E.10-22</t>
-  </si>
-  <si>
-    <t>Procedure.bodySite.text</t>
-  </si>
-  <si>
     <t>Plain text representation of the concept</t>
   </si>
   <si>
@@ -771,8 +879,34 @@
     <t>Procedure.reason[x]</t>
   </si>
   <si>
-    <t>CodeableConcept {[]} {[]}
-Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Condition]]}</t>
+    <t>CodeableConcept
+Reference(http://mcodeinitiative.org/us/mcode/StructureDefinition/onco-core-PrimaryCancerCondition|http://mcodeinitiative.org/us/mcode/StructureDefinition/onco-core-SecondaryCancerCondition)</t>
+  </si>
+  <si>
+    <t>Reference to a primary or secondary cancer condition</t>
+  </si>
+  <si>
+    <t>Reference to a primary or secondary cancer condition.</t>
+  </si>
+  <si>
+    <t>e.g. endoscopy for dilatation and biopsy, combination diagnosis and therapeutic.</t>
+  </si>
+  <si>
+    <t>http://mcodeinitiative.org/us/mcode/ValueSet/onco-core-CancerDisorderVS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type:$this}
+</t>
+  </si>
+  <si>
+    <t>.reasonCode</t>
+  </si>
+  <si>
+    <t>Procedure.reasonReference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(http://mcodeinitiative.org/us/mcode/StructureDefinition/onco-core-SecondaryCancerCondition)
+</t>
   </si>
   <si>
     <t>Reason procedure performed</t>
@@ -781,22 +915,14 @@
     <t>The reason why the procedure was performed. This may be due to a Condition, may be coded entity of some type, or may simply be present as text.</t>
   </si>
   <si>
-    <t>e.g. endoscopy for dilatation and biopsy, combination diagnosis and therapeutic.</t>
-  </si>
-  <si>
-    <t>A code that identifies the reason a procedure is  required.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/procedure-reason</t>
-  </si>
-  <si>
-    <t>.reasonCode</t>
+    <t xml:space="preserve">Reference(http://mcodeinitiative.org/us/mcode/StructureDefinition/onco-core-PrimaryCancerCondition)
+</t>
   </si>
   <si>
     <t>Procedure.performer</t>
   </si>
   <si>
-    <t xml:space="preserve">BackboneElement {[]} {[]}
+    <t xml:space="preserve">BackboneElement
 </t>
   </si>
   <si>
@@ -813,6 +939,46 @@
   </si>
   <si>
     <t>Procedure.performer.extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">exists:url}
+</t>
+  </si>
+  <si>
+    <t>onbehalfof</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://mcodeinitiative.org/us/mcode/StructureDefinition/obf-OnBehalfOf-extension}
+</t>
+  </si>
+  <si>
+    <t>The party represented by the actual participant.</t>
+  </si>
+  <si>
+    <t>Procedure.performer.extension.id</t>
+  </si>
+  <si>
+    <t>Procedure.performer.extension.extension</t>
+  </si>
+  <si>
+    <t>Procedure.performer.extension.url</t>
+  </si>
+  <si>
+    <t>http://mcodeinitiative.org/us/mcode/StructureDefinition/obf-OnBehalfOf-extension</t>
+  </si>
+  <si>
+    <t>Procedure.performer.extension.valueReference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Organization)
+</t>
+  </si>
+  <si>
+    <t>Organization: A formally or informally recognized grouping of people or organizations formed for the purpose of achieving some form of collective action</t>
+  </si>
+  <si>
+    <t>A formally or informally recognized grouping of people or organizations formed for the purpose of achieving some form of collective action. Includes companies, institutions, corporations, departments, community groups, healthcare practice groups, payer/insurer, etc.
+Organization type is restricted to 0..1 in FHIR DSTU2, similarly restricted here. Other required attributes come from STU 3 mapping to us-core-organization.</t>
   </si>
   <si>
     <t>Procedure.performer.modifierExtension</t>
@@ -828,14 +994,14 @@
     <t>Procedure.performer.actor</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Practitioner]]}
+    <t xml:space="preserve">Reference(Practitioner)
 </t>
   </si>
   <si>
-    <t>The reference to the practitioner</t>
-  </si>
-  <si>
-    <t>The practitioner who was involved in the procedure.</t>
+    <t>Constrains participants to classes that are accepted by FHIR as actors in procedures in STU 3</t>
+  </si>
+  <si>
+    <t>Constrains participants to classes that are accepted by FHIR as actors in procedures in STU 3.</t>
   </si>
   <si>
     <t>.role</t>
@@ -871,8 +1037,8 @@
     <t>Procedure.performed[x]</t>
   </si>
   <si>
-    <t>dateTime {[]} {[]}
-Period {[]} {[]}</t>
+    <t>dateTime
+Period</t>
   </si>
   <si>
     <t>Date/Period the procedure was performed</t>
@@ -893,7 +1059,7 @@
     <t>Procedure.encounter</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Encounter]]}
+    <t xml:space="preserve">Reference(Encounter)
 </t>
   </si>
   <si>
@@ -915,7 +1081,7 @@
     <t>Procedure.location</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Location]]}
+    <t xml:space="preserve">Reference(Location)
 </t>
   </si>
   <si>
@@ -955,7 +1121,7 @@
     <t>Procedure.report</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/DiagnosticReport]]}
+    <t xml:space="preserve">Reference(http://mcodeinitiative.org/us/mcode/StructureDefinition/obf-DiagnosticReport)
 </t>
   </si>
   <si>
@@ -1013,20 +1179,20 @@
     <t>Procedure.request</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-ProcedureRequest]]}
+    <t xml:space="preserve">Reference(http://mcodeinitiative.org/us/mcode/StructureDefinition/obf-ProcedureRequest|ReferralRequest)
 </t>
   </si>
   <si>
     <t>A request for this procedure</t>
   </si>
   <si>
-    <t>A reference to a resource that contains details of the request for this procedure.</t>
+    <t>A request for this procedure.</t>
   </si>
   <si>
     <t>Procedure.notes</t>
   </si>
   <si>
-    <t xml:space="preserve">Annotation {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Annotation]]} {[]}
+    <t xml:space="preserve">Annotation {http://mcodeinitiative.org/us/mcode/StructureDefinition/obf-Annotation}
 </t>
   </si>
   <si>
@@ -1078,7 +1244,7 @@
     <t>Procedure.focalDevice.manipulated</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Device]]}
+    <t xml:space="preserve">Reference(http://fhir.org/guides/argonaut/StructureDefinition/argo-device)
 </t>
   </si>
   <si>
@@ -1091,7 +1257,7 @@
     <t>Procedure.used</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Device], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Medication], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Substance]]}
+    <t xml:space="preserve">Reference(http://fhir.org/guides/argonaut/StructureDefinition/argo-device|http://fhir.org/guides/argonaut/StructureDefinition/argo-medication|Substance)
 </t>
   </si>
   <si>
@@ -1157,67 +1323,67 @@
     </border>
     <border>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
     </border>
     <border>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin"/>
     </border>
     <border>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin"/>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <top style="thin"/>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <top style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </top>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
   </borders>
@@ -1253,7 +1419,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM69"/>
+  <dimension ref="A1:AL80"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1262,7 +1428,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="40.7265625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="43.81640625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="25.95703125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
@@ -1272,11 +1438,11 @@
     <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="51.421875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="137.7578125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="53.45703125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
@@ -1285,8 +1451,8 @@
     <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="70.2734375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="68.3671875" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="95.21875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="76.80078125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
@@ -1757,23 +1923,21 @@
         <v>39</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="J5" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="K5" t="s" s="2">
         <v>59</v>
       </c>
-      <c r="K5" t="s" s="2">
+      <c r="L5" t="s" s="2">
         <v>60</v>
       </c>
-      <c r="L5" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>62</v>
-      </c>
+      <c r="M5" s="2"/>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
         <v>39</v>
@@ -1795,7 +1959,7 @@
         <v>39</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="W5" t="s" s="2">
         <v>39</v>
@@ -1821,15 +1985,11 @@
       <c r="AD5" t="s" s="2">
         <v>39</v>
       </c>
-      <c r="AE5" t="s" s="2">
-        <v>58</v>
-      </c>
+      <c r="AE5" s="2"/>
       <c r="AF5" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG5" t="s" s="2">
-        <v>48</v>
-      </c>
+      <c r="AG5" s="2"/>
       <c r="AH5" t="s" s="2">
         <v>39</v>
       </c>
@@ -1837,7 +1997,7 @@
         <v>39</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>39</v>
@@ -1848,18 +2008,18 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>39</v>
@@ -1903,41 +2063,35 @@
         <v>39</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="W6" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X6" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y6" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z6" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA6" t="s" s="2">
         <v>68</v>
       </c>
-      <c r="X6" t="s" s="2">
+      <c r="AB6" s="2"/>
+      <c r="AC6" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD6" t="s" s="2">
         <v>69</v>
       </c>
-      <c r="Y6" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="Z6" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA6" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>63</v>
-      </c>
+      <c r="AE6" s="2"/>
       <c r="AF6" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG6" t="s" s="2">
-        <v>48</v>
-      </c>
+      <c r="AG6" s="2"/>
       <c r="AH6" t="s" s="2">
         <v>39</v>
       </c>
@@ -1945,7 +2099,7 @@
         <v>39</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>39</v>
@@ -1956,11 +2110,13 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="B7" s="2"/>
+        <v>62</v>
+      </c>
+      <c r="B7" t="s" s="2">
+        <v>70</v>
+      </c>
       <c r="C7" t="s" s="2">
-        <v>72</v>
+        <v>39</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
@@ -1979,17 +2135,13 @@
         <v>39</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="K7" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="K7" s="2"/>
       <c r="L7" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="M7" s="2"/>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
         <v>39</v>
@@ -2011,7 +2163,7 @@
         <v>39</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="W7" t="s" s="2">
         <v>39</v>
@@ -2038,22 +2190,22 @@
         <v>39</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>39</v>
@@ -2064,18 +2216,18 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G8" t="s" s="2">
         <v>39</v>
@@ -2084,19 +2236,19 @@
         <v>39</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>81</v>
+        <v>50</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -2119,7 +2271,7 @@
         <v>39</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="W8" t="s" s="2">
         <v>39</v>
@@ -2145,15 +2297,11 @@
       <c r="AD8" t="s" s="2">
         <v>39</v>
       </c>
-      <c r="AE8" t="s" s="2">
-        <v>79</v>
-      </c>
+      <c r="AE8" s="2"/>
       <c r="AF8" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG8" t="s" s="2">
-        <v>41</v>
-      </c>
+      <c r="AG8" s="2"/>
       <c r="AH8" t="s" s="2">
         <v>39</v>
       </c>
@@ -2161,7 +2309,7 @@
         <v>39</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>85</v>
+        <v>39</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>39</v>
@@ -2172,18 +2320,18 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>87</v>
+        <v>39</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G9" t="s" s="2">
         <v>39</v>
@@ -2192,19 +2340,19 @@
         <v>39</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
@@ -2227,7 +2375,7 @@
         <v>39</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="W9" t="s" s="2">
         <v>39</v>
@@ -2242,24 +2390,22 @@
         <v>39</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AB9" s="2"/>
+        <v>39</v>
+      </c>
+      <c r="AB9" t="s" s="2">
+        <v>39</v>
+      </c>
       <c r="AC9" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AE9" t="s" s="2">
-        <v>86</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="AE9" s="2"/>
       <c r="AF9" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG9" t="s" s="2">
-        <v>41</v>
-      </c>
+      <c r="AG9" s="2"/>
       <c r="AH9" t="s" s="2">
         <v>39</v>
       </c>
@@ -2267,7 +2413,7 @@
         <v>39</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>85</v>
+        <v>39</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>39</v>
@@ -2278,11 +2424,9 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="B10" t="s" s="2">
-        <v>94</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
         <v>39</v>
       </c>
@@ -2291,7 +2435,7 @@
         <v>40</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G10" t="s" s="2">
         <v>39</v>
@@ -2300,16 +2444,20 @@
         <v>39</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="K10" s="2"/>
+        <v>83</v>
+      </c>
+      <c r="K10" t="s" s="2">
+        <v>84</v>
+      </c>
       <c r="L10" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="M10" s="2"/>
+        <v>85</v>
+      </c>
+      <c r="M10" t="s" s="2">
+        <v>86</v>
+      </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
         <v>39</v>
@@ -2331,7 +2479,7 @@
         <v>39</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="W10" t="s" s="2">
         <v>39</v>
@@ -2357,15 +2505,11 @@
       <c r="AD10" t="s" s="2">
         <v>39</v>
       </c>
-      <c r="AE10" t="s" s="2">
-        <v>86</v>
-      </c>
+      <c r="AE10" s="2"/>
       <c r="AF10" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG10" t="s" s="2">
-        <v>41</v>
-      </c>
+      <c r="AG10" s="2"/>
       <c r="AH10" t="s" s="2">
         <v>39</v>
       </c>
@@ -2384,11 +2528,9 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="B11" t="s" s="2">
-        <v>97</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
         <v>39</v>
       </c>
@@ -2397,7 +2539,7 @@
         <v>40</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>39</v>
@@ -2406,16 +2548,20 @@
         <v>39</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="K11" s="2"/>
+        <v>88</v>
+      </c>
+      <c r="K11" t="s" s="2">
+        <v>89</v>
+      </c>
       <c r="L11" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="M11" s="2"/>
+        <v>90</v>
+      </c>
+      <c r="M11" t="s" s="2">
+        <v>91</v>
+      </c>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
         <v>39</v>
@@ -2437,16 +2583,16 @@
         <v>39</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>39</v>
+        <v>92</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>39</v>
+        <v>93</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>39</v>
+        <v>94</v>
       </c>
       <c r="Z11" t="s" s="2">
         <v>39</v>
@@ -2463,15 +2609,11 @@
       <c r="AD11" t="s" s="2">
         <v>39</v>
       </c>
-      <c r="AE11" t="s" s="2">
-        <v>86</v>
-      </c>
+      <c r="AE11" s="2"/>
       <c r="AF11" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG11" t="s" s="2">
-        <v>41</v>
-      </c>
+      <c r="AG11" s="2"/>
       <c r="AH11" t="s" s="2">
         <v>39</v>
       </c>
@@ -2490,7 +2632,7 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -2501,7 +2643,7 @@
         <v>40</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>39</v>
@@ -2510,18 +2652,20 @@
         <v>39</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="M12" s="2"/>
+        <v>97</v>
+      </c>
+      <c r="M12" t="s" s="2">
+        <v>98</v>
+      </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
         <v>39</v>
@@ -2546,10 +2690,10 @@
         <v>39</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>39</v>
+        <v>99</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>39</v>
+        <v>100</v>
       </c>
       <c r="Y12" t="s" s="2">
         <v>39</v>
@@ -2569,15 +2713,11 @@
       <c r="AD12" t="s" s="2">
         <v>39</v>
       </c>
-      <c r="AE12" t="s" s="2">
-        <v>104</v>
-      </c>
+      <c r="AE12" s="2"/>
       <c r="AF12" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG12" t="s" s="2">
-        <v>48</v>
-      </c>
+      <c r="AG12" s="2"/>
       <c r="AH12" t="s" s="2">
         <v>39</v>
       </c>
@@ -2585,7 +2725,7 @@
         <v>39</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>85</v>
+        <v>39</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>39</v>
@@ -2596,7 +2736,7 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2607,27 +2747,29 @@
         <v>40</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="M13" s="2"/>
+        <v>103</v>
+      </c>
+      <c r="M13" t="s" s="2">
+        <v>104</v>
+      </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
         <v>39</v>
@@ -2649,7 +2791,7 @@
         <v>39</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="W13" t="s" s="2">
         <v>39</v>
@@ -2676,13 +2818,13 @@
         <v>39</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>39</v>
@@ -2702,7 +2844,7 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -2710,7 +2852,7 @@
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F14" t="s" s="2">
         <v>48</v>
@@ -2725,47 +2867,49 @@
         <v>39</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>59</v>
+        <v>106</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="M14" s="2"/>
+        <v>108</v>
+      </c>
+      <c r="M14" t="s" s="2">
+        <v>109</v>
+      </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
         <v>39</v>
       </c>
       <c r="P14" s="2"/>
       <c r="Q14" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R14" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S14" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T14" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U14" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V14" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W14" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="X14" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="Y14" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="R14" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="S14" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="T14" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="U14" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="V14" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="W14" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="X14" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Y14" t="s" s="2">
-        <v>39</v>
-      </c>
       <c r="Z14" t="s" s="2">
         <v>39</v>
       </c>
@@ -2782,10 +2926,10 @@
         <v>39</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>48</v>
@@ -2797,7 +2941,7 @@
         <v>39</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>85</v>
+        <v>39</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>39</v>
@@ -2808,15 +2952,15 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>39</v>
+        <v>114</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F15" t="s" s="2">
         <v>48</v>
@@ -2839,7 +2983,9 @@
       <c r="L15" t="s" s="2">
         <v>117</v>
       </c>
-      <c r="M15" s="2"/>
+      <c r="M15" t="s" s="2">
+        <v>118</v>
+      </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
         <v>39</v>
@@ -2861,14 +3007,16 @@
         <v>39</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="X15" s="2"/>
+        <v>39</v>
+      </c>
+      <c r="X15" t="s" s="2">
+        <v>39</v>
+      </c>
       <c r="Y15" t="s" s="2">
-        <v>119</v>
+        <v>39</v>
       </c>
       <c r="Z15" t="s" s="2">
         <v>39</v>
@@ -2886,7 +3034,7 @@
         <v>39</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>40</v>
@@ -2895,13 +3043,13 @@
         <v>48</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>39</v>
+        <v>119</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>85</v>
+        <v>120</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>39</v>
@@ -2912,20 +3060,18 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="B16" t="s" s="2">
         <v>121</v>
       </c>
+      <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>39</v>
+        <v>122</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>39</v>
@@ -2937,13 +3083,17 @@
         <v>39</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="K16" s="2"/>
+        <v>123</v>
+      </c>
+      <c r="K16" t="s" s="2">
+        <v>124</v>
+      </c>
       <c r="L16" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="M16" s="2"/>
+        <v>125</v>
+      </c>
+      <c r="M16" t="s" s="2">
+        <v>126</v>
+      </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
         <v>39</v>
@@ -2992,7 +3142,7 @@
         <v>39</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>86</v>
+        <v>121</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>40</v>
@@ -3007,7 +3157,7 @@
         <v>39</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>39</v>
+        <v>127</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>39</v>
@@ -3018,20 +3168,18 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="B17" t="s" s="2">
-        <v>124</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>39</v>
@@ -3043,13 +3191,17 @@
         <v>39</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="K17" s="2"/>
+        <v>64</v>
+      </c>
+      <c r="K17" t="s" s="2">
+        <v>65</v>
+      </c>
       <c r="L17" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="M17" s="2"/>
+        <v>129</v>
+      </c>
+      <c r="M17" t="s" s="2">
+        <v>67</v>
+      </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
         <v>39</v>
@@ -3086,19 +3238,17 @@
         <v>39</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB17" t="s" s="2">
-        <v>39</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="AB17" s="2"/>
       <c r="AC17" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>86</v>
+        <v>128</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>40</v>
@@ -3113,7 +3263,7 @@
         <v>39</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>39</v>
+        <v>127</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>39</v>
@@ -3124,9 +3274,11 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="B18" s="2"/>
+        <v>128</v>
+      </c>
+      <c r="B18" t="s" s="2">
+        <v>130</v>
+      </c>
       <c r="C18" t="s" s="2">
         <v>39</v>
       </c>
@@ -3147,13 +3299,11 @@
         <v>39</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="K18" t="s" s="2">
-        <v>102</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="K18" s="2"/>
       <c r="L18" t="s" s="2">
-        <v>103</v>
+        <v>132</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -3177,7 +3327,7 @@
         <v>39</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="W18" t="s" s="2">
         <v>39</v>
@@ -3204,13 +3354,13 @@
         <v>39</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>104</v>
+        <v>128</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>39</v>
@@ -3219,7 +3369,7 @@
         <v>39</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>85</v>
+        <v>39</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>39</v>
@@ -3230,9 +3380,11 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="B19" s="2"/>
+        <v>128</v>
+      </c>
+      <c r="B19" t="s" s="2">
+        <v>133</v>
+      </c>
       <c r="C19" t="s" s="2">
         <v>39</v>
       </c>
@@ -3241,7 +3393,7 @@
         <v>40</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>39</v>
@@ -3253,13 +3405,11 @@
         <v>39</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K19" t="s" s="2">
-        <v>106</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="K19" s="2"/>
       <c r="L19" t="s" s="2">
-        <v>107</v>
+        <v>135</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -3283,7 +3433,7 @@
         <v>39</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="W19" t="s" s="2">
         <v>39</v>
@@ -3310,7 +3460,7 @@
         <v>39</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>108</v>
+        <v>128</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>40</v>
@@ -3336,18 +3486,20 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="B20" s="2"/>
+        <v>128</v>
+      </c>
+      <c r="B20" t="s" s="2">
+        <v>136</v>
+      </c>
       <c r="C20" t="s" s="2">
         <v>39</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>39</v>
@@ -3359,13 +3511,11 @@
         <v>39</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>59</v>
-      </c>
-      <c r="K20" t="s" s="2">
-        <v>110</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="K20" s="2"/>
       <c r="L20" t="s" s="2">
-        <v>111</v>
+        <v>138</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -3374,7 +3524,7 @@
       </c>
       <c r="P20" s="2"/>
       <c r="Q20" t="s" s="2">
-        <v>127</v>
+        <v>39</v>
       </c>
       <c r="R20" t="s" s="2">
         <v>39</v>
@@ -3389,7 +3539,7 @@
         <v>39</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="W20" t="s" s="2">
         <v>39</v>
@@ -3416,13 +3566,13 @@
         <v>39</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>113</v>
+        <v>128</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>39</v>
@@ -3431,7 +3581,7 @@
         <v>39</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>85</v>
+        <v>39</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>39</v>
@@ -3444,16 +3594,18 @@
       <c r="A21" t="s" s="2">
         <v>128</v>
       </c>
-      <c r="B21" s="2"/>
+      <c r="B21" t="s" s="2">
+        <v>139</v>
+      </c>
       <c r="C21" t="s" s="2">
         <v>39</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>39</v>
@@ -3465,13 +3617,11 @@
         <v>39</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="K21" t="s" s="2">
-        <v>38</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="K21" s="2"/>
       <c r="L21" t="s" s="2">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -3495,7 +3645,7 @@
         <v>39</v>
       </c>
       <c r="V21" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="W21" t="s" s="2">
         <v>39</v>
@@ -3522,13 +3672,13 @@
         <v>39</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>39</v>
@@ -3537,7 +3687,7 @@
         <v>39</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>85</v>
+        <v>39</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>39</v>
@@ -3546,12 +3696,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>86</v>
+        <v>128</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="C22" t="s" s="2">
         <v>39</v>
@@ -3564,7 +3714,7 @@
         <v>48</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>39</v>
@@ -3573,11 +3723,11 @@
         <v>39</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="K22" s="2"/>
       <c r="L22" t="s" s="2">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -3628,7 +3778,7 @@
         <v>39</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>86</v>
+        <v>128</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>40</v>
@@ -3652,12 +3802,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="23" hidden="true">
+    <row r="23">
       <c r="A23" t="s" s="2">
-        <v>86</v>
+        <v>128</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="C23" t="s" s="2">
         <v>39</v>
@@ -3670,7 +3820,7 @@
         <v>48</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>39</v>
@@ -3679,11 +3829,11 @@
         <v>39</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="K23" s="2"/>
       <c r="L23" t="s" s="2">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -3734,7 +3884,7 @@
         <v>39</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>86</v>
+        <v>128</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>40</v>
@@ -3760,10 +3910,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>86</v>
+        <v>128</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="C24" t="s" s="2">
         <v>39</v>
@@ -3785,11 +3935,11 @@
         <v>39</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="K24" s="2"/>
       <c r="L24" t="s" s="2">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -3840,7 +3990,7 @@
         <v>39</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>86</v>
+        <v>128</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>40</v>
@@ -3866,10 +4016,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>86</v>
+        <v>128</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="C25" t="s" s="2">
         <v>39</v>
@@ -3891,11 +4041,11 @@
         <v>39</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="K25" s="2"/>
       <c r="L25" t="s" s="2">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -3946,7 +4096,7 @@
         <v>39</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>86</v>
+        <v>128</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>40</v>
@@ -3970,12 +4120,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" hidden="true">
+    <row r="26">
       <c r="A26" t="s" s="2">
-        <v>86</v>
+        <v>128</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="C26" t="s" s="2">
         <v>39</v>
@@ -3985,10 +4135,10 @@
         <v>40</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>39</v>
@@ -3997,11 +4147,11 @@
         <v>39</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="K26" s="2"/>
       <c r="L26" t="s" s="2">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -4052,7 +4202,7 @@
         <v>39</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>86</v>
+        <v>128</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>40</v>
@@ -4078,9 +4228,11 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="B27" s="2"/>
+        <v>128</v>
+      </c>
+      <c r="B27" t="s" s="2">
+        <v>157</v>
+      </c>
       <c r="C27" t="s" s="2">
         <v>39</v>
       </c>
@@ -4101,13 +4253,11 @@
         <v>39</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="K27" t="s" s="2">
-        <v>102</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="K27" s="2"/>
       <c r="L27" t="s" s="2">
-        <v>103</v>
+        <v>159</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -4131,7 +4281,7 @@
         <v>39</v>
       </c>
       <c r="V27" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="W27" t="s" s="2">
         <v>39</v>
@@ -4158,13 +4308,13 @@
         <v>39</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>104</v>
+        <v>128</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>39</v>
@@ -4173,7 +4323,7 @@
         <v>39</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>85</v>
+        <v>39</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>39</v>
@@ -4184,9 +4334,11 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="B28" s="2"/>
+        <v>128</v>
+      </c>
+      <c r="B28" t="s" s="2">
+        <v>160</v>
+      </c>
       <c r="C28" t="s" s="2">
         <v>39</v>
       </c>
@@ -4195,7 +4347,7 @@
         <v>40</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>39</v>
@@ -4207,13 +4359,11 @@
         <v>39</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K28" t="s" s="2">
-        <v>106</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="K28" s="2"/>
       <c r="L28" t="s" s="2">
-        <v>107</v>
+        <v>162</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -4237,7 +4387,7 @@
         <v>39</v>
       </c>
       <c r="V28" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="W28" t="s" s="2">
         <v>39</v>
@@ -4264,7 +4414,7 @@
         <v>39</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>108</v>
+        <v>128</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>40</v>
@@ -4290,15 +4440,17 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="B29" s="2"/>
+        <v>128</v>
+      </c>
+      <c r="B29" t="s" s="2">
+        <v>163</v>
+      </c>
       <c r="C29" t="s" s="2">
         <v>39</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F29" t="s" s="2">
         <v>48</v>
@@ -4313,13 +4465,11 @@
         <v>39</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>59</v>
-      </c>
-      <c r="K29" t="s" s="2">
-        <v>110</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="K29" s="2"/>
       <c r="L29" t="s" s="2">
-        <v>111</v>
+        <v>165</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -4328,7 +4478,7 @@
       </c>
       <c r="P29" s="2"/>
       <c r="Q29" t="s" s="2">
-        <v>145</v>
+        <v>39</v>
       </c>
       <c r="R29" t="s" s="2">
         <v>39</v>
@@ -4343,7 +4493,7 @@
         <v>39</v>
       </c>
       <c r="V29" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="W29" t="s" s="2">
         <v>39</v>
@@ -4370,13 +4520,13 @@
         <v>39</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>113</v>
+        <v>128</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>39</v>
@@ -4385,7 +4535,7 @@
         <v>39</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>85</v>
+        <v>39</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>39</v>
@@ -4396,18 +4546,20 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="B30" s="2"/>
+        <v>128</v>
+      </c>
+      <c r="B30" t="s" s="2">
+        <v>166</v>
+      </c>
       <c r="C30" t="s" s="2">
         <v>39</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>39</v>
@@ -4419,13 +4571,11 @@
         <v>39</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="K30" t="s" s="2">
-        <v>116</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="K30" s="2"/>
       <c r="L30" t="s" s="2">
-        <v>117</v>
+        <v>168</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -4449,14 +4599,16 @@
         <v>39</v>
       </c>
       <c r="V30" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>68</v>
-      </c>
-      <c r="X30" s="2"/>
+        <v>39</v>
+      </c>
+      <c r="X30" t="s" s="2">
+        <v>39</v>
+      </c>
       <c r="Y30" t="s" s="2">
-        <v>146</v>
+        <v>39</v>
       </c>
       <c r="Z30" t="s" s="2">
         <v>39</v>
@@ -4474,13 +4626,13 @@
         <v>39</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>39</v>
@@ -4489,7 +4641,7 @@
         <v>39</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>85</v>
+        <v>39</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>39</v>
@@ -4500,40 +4652,38 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>147</v>
+        <v>169</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>87</v>
+        <v>39</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="I31" t="s" s="2">
         <v>39</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>88</v>
+        <v>50</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>148</v>
+        <v>59</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>91</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="M31" s="2"/>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
         <v>39</v>
@@ -4555,7 +4705,7 @@
         <v>39</v>
       </c>
       <c r="V31" t="s" s="2">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="W31" t="s" s="2">
         <v>39</v>
@@ -4582,13 +4732,13 @@
         <v>39</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>147</v>
+        <v>170</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>39</v>
@@ -4597,7 +4747,7 @@
         <v>39</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>85</v>
+        <v>61</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>39</v>
@@ -4608,18 +4758,18 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>150</v>
+        <v>171</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>39</v>
@@ -4628,21 +4778,21 @@
         <v>39</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>151</v>
+        <v>64</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>152</v>
+        <v>65</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="M32" s="2"/>
-      <c r="N32" t="s" s="2">
-        <v>154</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="M32" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
         <v>39</v>
       </c>
@@ -4663,7 +4813,7 @@
         <v>39</v>
       </c>
       <c r="V32" t="s" s="2">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="W32" t="s" s="2">
         <v>39</v>
@@ -4690,7 +4840,7 @@
         <v>39</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>150</v>
+        <v>172</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>40</v>
@@ -4705,18 +4855,18 @@
         <v>39</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>155</v>
+        <v>61</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>156</v>
+        <v>39</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>157</v>
+        <v>39</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4730,7 +4880,7 @@
         <v>48</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>39</v>
@@ -4739,22 +4889,24 @@
         <v>39</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>159</v>
+        <v>83</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="M33" s="2"/>
+        <v>175</v>
+      </c>
+      <c r="M33" t="s" s="2">
+        <v>176</v>
+      </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>39</v>
       </c>
       <c r="P33" s="2"/>
       <c r="Q33" t="s" s="2">
-        <v>39</v>
+        <v>177</v>
       </c>
       <c r="R33" t="s" s="2">
         <v>39</v>
@@ -4769,7 +4921,7 @@
         <v>39</v>
       </c>
       <c r="V33" t="s" s="2">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="W33" t="s" s="2">
         <v>39</v>
@@ -4796,7 +4948,7 @@
         <v>39</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>158</v>
+        <v>178</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>48</v>
@@ -4811,18 +4963,18 @@
         <v>39</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>162</v>
+        <v>127</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>163</v>
+        <v>39</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>164</v>
+        <v>39</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -4836,22 +4988,22 @@
         <v>48</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="I34" t="s" s="2">
         <v>39</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>64</v>
+        <v>180</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -4875,14 +5027,14 @@
         <v>39</v>
       </c>
       <c r="V34" t="s" s="2">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>68</v>
+        <v>110</v>
       </c>
       <c r="X34" s="2"/>
       <c r="Y34" t="s" s="2">
-        <v>168</v>
+        <v>183</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>39</v>
@@ -4900,10 +5052,10 @@
         <v>39</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>165</v>
+        <v>184</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>48</v>
@@ -4915,7 +5067,7 @@
         <v>39</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>39</v>
+        <v>127</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>39</v>
@@ -4926,38 +5078,40 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>169</v>
+        <v>185</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>115</v>
+        <v>64</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>170</v>
+        <v>186</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="M35" s="2"/>
+        <v>187</v>
+      </c>
+      <c r="M35" t="s" s="2">
+        <v>67</v>
+      </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
         <v>39</v>
@@ -4982,13 +5136,13 @@
         <v>40</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>172</v>
+        <v>39</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>173</v>
+        <v>39</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>174</v>
+        <v>39</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>39</v>
@@ -5006,13 +5160,13 @@
         <v>39</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>169</v>
+        <v>185</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>39</v>
@@ -5021,7 +5175,7 @@
         <v>39</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>175</v>
+        <v>127</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>39</v>
@@ -5030,9 +5184,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5040,31 +5194,33 @@
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G36" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H36" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I36" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="H36" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="I36" t="s" s="2">
-        <v>39</v>
-      </c>
       <c r="J36" t="s" s="2">
-        <v>115</v>
+        <v>189</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>177</v>
+        <v>190</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>178</v>
+        <v>191</v>
       </c>
       <c r="M36" s="2"/>
-      <c r="N36" s="2"/>
+      <c r="N36" t="s" s="2">
+        <v>192</v>
+      </c>
       <c r="O36" t="s" s="2">
         <v>39</v>
       </c>
@@ -5088,11 +5244,13 @@
         <v>40</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="X36" s="2"/>
+        <v>39</v>
+      </c>
+      <c r="X36" t="s" s="2">
+        <v>39</v>
+      </c>
       <c r="Y36" t="s" s="2">
-        <v>179</v>
+        <v>39</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>39</v>
@@ -5110,13 +5268,13 @@
         <v>39</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>39</v>
@@ -5125,18 +5283,18 @@
         <v>39</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>180</v>
+        <v>193</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>181</v>
+        <v>194</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>182</v>
+        <v>195</v>
       </c>
     </row>
-    <row r="37" hidden="true">
+    <row r="37">
       <c r="A37" t="s" s="2">
-        <v>183</v>
+        <v>196</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5144,33 +5302,33 @@
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="I37" t="s" s="2">
         <v>39</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>184</v>
+        <v>197</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>185</v>
+        <v>198</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>186</v>
+        <v>199</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
-        <v>187</v>
+        <v>39</v>
       </c>
       <c r="P37" s="2"/>
       <c r="Q37" t="s" s="2">
@@ -5216,10 +5374,10 @@
         <v>39</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>183</v>
+        <v>196</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>48</v>
@@ -5231,18 +5389,18 @@
         <v>39</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>188</v>
+        <v>200</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>39</v>
+        <v>201</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>39</v>
+        <v>202</v>
       </c>
     </row>
-    <row r="38" hidden="true">
+    <row r="38">
       <c r="A38" t="s" s="2">
-        <v>189</v>
+        <v>203</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5250,28 +5408,28 @@
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="I38" t="s" s="2">
         <v>39</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>190</v>
+        <v>204</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>191</v>
+        <v>205</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -5298,13 +5456,11 @@
         <v>40</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="X38" t="s" s="2">
-        <v>192</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="X38" s="2"/>
       <c r="Y38" t="s" s="2">
-        <v>193</v>
+        <v>206</v>
       </c>
       <c r="Z38" t="s" s="2">
         <v>39</v>
@@ -5322,22 +5478,22 @@
         <v>39</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>189</v>
+        <v>203</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>194</v>
+        <v>39</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>195</v>
+        <v>39</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>39</v>
@@ -5346,9 +5502,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>196</v>
+        <v>207</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5359,10 +5515,10 @@
         <v>40</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>39</v>
@@ -5371,13 +5527,13 @@
         <v>49</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>115</v>
+        <v>180</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>197</v>
+        <v>208</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>198</v>
+        <v>209</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -5404,11 +5560,13 @@
         <v>40</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="X39" s="2"/>
+        <v>99</v>
+      </c>
+      <c r="X39" t="s" s="2">
+        <v>210</v>
+      </c>
       <c r="Y39" t="s" s="2">
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>39</v>
@@ -5426,13 +5584,13 @@
         <v>39</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>196</v>
+        <v>207</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>39</v>
@@ -5441,18 +5599,18 @@
         <v>39</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>201</v>
+        <v>39</v>
       </c>
     </row>
-    <row r="40" hidden="true">
+    <row r="40">
       <c r="A40" t="s" s="2">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5460,13 +5618,13 @@
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="F40" t="s" s="2">
         <v>48</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>39</v>
@@ -5475,13 +5633,13 @@
         <v>39</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>50</v>
+        <v>180</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>102</v>
+        <v>214</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -5505,16 +5663,14 @@
         <v>39</v>
       </c>
       <c r="V40" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="X40" t="s" s="2">
-        <v>39</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="X40" s="2"/>
       <c r="Y40" t="s" s="2">
-        <v>39</v>
+        <v>216</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>39</v>
@@ -5531,11 +5687,15 @@
       <c r="AD40" t="s" s="2">
         <v>39</v>
       </c>
-      <c r="AE40" s="2"/>
+      <c r="AE40" t="s" s="2">
+        <v>213</v>
+      </c>
       <c r="AF40" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG40" s="2"/>
+        <v>48</v>
+      </c>
+      <c r="AG40" t="s" s="2">
+        <v>48</v>
+      </c>
       <c r="AH40" t="s" s="2">
         <v>39</v>
       </c>
@@ -5543,54 +5703,52 @@
         <v>39</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>39</v>
+        <v>218</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>39</v>
+        <v>219</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>205</v>
+        <v>220</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>87</v>
+        <v>39</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="I41" t="s" s="2">
         <v>39</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>88</v>
+        <v>221</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>89</v>
+        <v>222</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>91</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="M41" s="2"/>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
-        <v>39</v>
+        <v>224</v>
       </c>
       <c r="P41" s="2"/>
       <c r="Q41" t="s" s="2">
@@ -5609,7 +5767,7 @@
         <v>39</v>
       </c>
       <c r="V41" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="W41" t="s" s="2">
         <v>39</v>
@@ -5624,20 +5782,26 @@
         <v>39</v>
       </c>
       <c r="AA41" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AB41" s="2"/>
+        <v>39</v>
+      </c>
+      <c r="AB41" t="s" s="2">
+        <v>39</v>
+      </c>
       <c r="AC41" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AD41" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AE41" s="2"/>
+        <v>39</v>
+      </c>
+      <c r="AE41" t="s" s="2">
+        <v>220</v>
+      </c>
       <c r="AF41" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG41" s="2"/>
+      <c r="AG41" t="s" s="2">
+        <v>48</v>
+      </c>
       <c r="AH41" t="s" s="2">
         <v>39</v>
       </c>
@@ -5645,7 +5809,7 @@
         <v>39</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>204</v>
+        <v>225</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>39</v>
@@ -5656,11 +5820,9 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="B42" t="s" s="2">
-        <v>207</v>
-      </c>
+        <v>226</v>
+      </c>
+      <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
         <v>39</v>
       </c>
@@ -5669,7 +5831,7 @@
         <v>40</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>39</v>
@@ -5681,11 +5843,13 @@
         <v>39</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="K42" s="2"/>
+        <v>180</v>
+      </c>
+      <c r="K42" t="s" s="2">
+        <v>227</v>
+      </c>
       <c r="L42" t="s" s="2">
-        <v>209</v>
+        <v>228</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -5709,16 +5873,16 @@
         <v>39</v>
       </c>
       <c r="V42" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>39</v>
+        <v>99</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>39</v>
+        <v>229</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>39</v>
+        <v>230</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>39</v>
@@ -5736,7 +5900,7 @@
         <v>39</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>205</v>
+        <v>226</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>40</v>
@@ -5745,13 +5909,13 @@
         <v>41</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>39</v>
+        <v>231</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>39</v>
+        <v>232</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>39</v>
@@ -5760,13 +5924,11 @@
         <v>39</v>
       </c>
     </row>
-    <row r="43" hidden="true">
+    <row r="43">
       <c r="A43" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="B43" t="s" s="2">
-        <v>210</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
         <v>39</v>
       </c>
@@ -5778,20 +5940,22 @@
         <v>41</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>39</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="K43" s="2"/>
+        <v>180</v>
+      </c>
+      <c r="K43" t="s" s="2">
+        <v>234</v>
+      </c>
       <c r="L43" t="s" s="2">
-        <v>212</v>
+        <v>235</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -5815,16 +5979,14 @@
         <v>39</v>
       </c>
       <c r="V43" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="X43" t="s" s="2">
-        <v>39</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="X43" s="2"/>
       <c r="Y43" t="s" s="2">
-        <v>39</v>
+        <v>236</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>39</v>
@@ -5842,7 +6004,7 @@
         <v>39</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>205</v>
+        <v>233</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>40</v>
@@ -5857,22 +6019,20 @@
         <v>39</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>39</v>
+        <v>237</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>39</v>
+        <v>238</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="B44" t="s" s="2">
-        <v>213</v>
-      </c>
+        <v>239</v>
+      </c>
+      <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
         <v>39</v>
       </c>
@@ -5881,7 +6041,7 @@
         <v>40</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>39</v>
@@ -5893,11 +6053,13 @@
         <v>39</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="K44" s="2"/>
+        <v>50</v>
+      </c>
+      <c r="K44" t="s" s="2">
+        <v>59</v>
+      </c>
       <c r="L44" t="s" s="2">
-        <v>215</v>
+        <v>60</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -5947,15 +6109,11 @@
       <c r="AD44" t="s" s="2">
         <v>39</v>
       </c>
-      <c r="AE44" t="s" s="2">
-        <v>205</v>
-      </c>
+      <c r="AE44" s="2"/>
       <c r="AF44" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG44" t="s" s="2">
-        <v>41</v>
-      </c>
+      <c r="AG44" s="2"/>
       <c r="AH44" t="s" s="2">
         <v>39</v>
       </c>
@@ -5963,7 +6121,7 @@
         <v>39</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>39</v>
@@ -5974,11 +6132,11 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>216</v>
+        <v>240</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
@@ -5994,23 +6152,21 @@
         <v>39</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>217</v>
+        <v>64</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>218</v>
+        <v>65</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>219</v>
+        <v>66</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>221</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>39</v>
       </c>
@@ -6046,16 +6202,14 @@
         <v>39</v>
       </c>
       <c r="AA45" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB45" t="s" s="2">
-        <v>39</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="AB45" s="2"/>
       <c r="AC45" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AD45" t="s" s="2">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="AE45" s="2"/>
       <c r="AF45" t="s" s="2">
@@ -6069,20 +6223,22 @@
         <v>39</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>222</v>
+        <v>61</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>223</v>
+        <v>39</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="B46" s="2"/>
+        <v>240</v>
+      </c>
+      <c r="B46" t="s" s="2">
+        <v>241</v>
+      </c>
       <c r="C46" t="s" s="2">
         <v>39</v>
       </c>
@@ -6091,7 +6247,7 @@
         <v>40</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>39</v>
@@ -6100,23 +6256,17 @@
         <v>39</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="K46" t="s" s="2">
-        <v>225</v>
-      </c>
+        <v>242</v>
+      </c>
+      <c r="K46" s="2"/>
       <c r="L46" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>228</v>
-      </c>
+        <v>243</v>
+      </c>
+      <c r="M46" s="2"/>
+      <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>39</v>
       </c>
@@ -6163,11 +6313,15 @@
       <c r="AD46" t="s" s="2">
         <v>39</v>
       </c>
-      <c r="AE46" s="2"/>
+      <c r="AE46" t="s" s="2">
+        <v>240</v>
+      </c>
       <c r="AF46" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG46" s="2"/>
+      <c r="AG46" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AH46" t="s" s="2">
         <v>39</v>
       </c>
@@ -6175,20 +6329,22 @@
         <v>39</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>229</v>
+        <v>39</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>230</v>
+        <v>39</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="B47" s="2"/>
+        <v>240</v>
+      </c>
+      <c r="B47" t="s" s="2">
+        <v>244</v>
+      </c>
       <c r="C47" t="s" s="2">
         <v>39</v>
       </c>
@@ -6197,7 +6353,7 @@
         <v>40</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>39</v>
@@ -6206,20 +6362,16 @@
         <v>39</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="K47" t="s" s="2">
-        <v>233</v>
-      </c>
+        <v>245</v>
+      </c>
+      <c r="K47" s="2"/>
       <c r="L47" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>235</v>
-      </c>
+        <v>246</v>
+      </c>
+      <c r="M47" s="2"/>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>39</v>
@@ -6241,16 +6393,16 @@
         <v>39</v>
       </c>
       <c r="V47" t="s" s="2">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>172</v>
+        <v>39</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>236</v>
+        <v>39</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>237</v>
+        <v>39</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>39</v>
@@ -6268,13 +6420,13 @@
         <v>39</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>39</v>
@@ -6283,7 +6435,7 @@
         <v>39</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>238</v>
+        <v>39</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>39</v>
@@ -6294,9 +6446,11 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="B48" s="2"/>
+        <v>240</v>
+      </c>
+      <c r="B48" t="s" s="2">
+        <v>247</v>
+      </c>
       <c r="C48" t="s" s="2">
         <v>39</v>
       </c>
@@ -6314,16 +6468,14 @@
         <v>39</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="K48" t="s" s="2">
-        <v>241</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="K48" s="2"/>
       <c r="L48" t="s" s="2">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -6347,7 +6499,7 @@
         <v>39</v>
       </c>
       <c r="V48" t="s" s="2">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="W48" t="s" s="2">
         <v>39</v>
@@ -6374,7 +6526,7 @@
         <v>39</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>40</v>
@@ -6389,7 +6541,7 @@
         <v>39</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>243</v>
+        <v>39</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>39</v>
@@ -6400,7 +6552,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -6411,7 +6563,7 @@
         <v>40</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>39</v>
@@ -6420,19 +6572,23 @@
         <v>39</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>50</v>
+        <v>88</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>102</v>
+        <v>251</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="M49" s="2"/>
-      <c r="N49" s="2"/>
+        <v>252</v>
+      </c>
+      <c r="M49" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>254</v>
+      </c>
       <c r="O49" t="s" s="2">
         <v>39</v>
       </c>
@@ -6453,7 +6609,7 @@
         <v>39</v>
       </c>
       <c r="V49" t="s" s="2">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="W49" t="s" s="2">
         <v>39</v>
@@ -6479,15 +6635,11 @@
       <c r="AD49" t="s" s="2">
         <v>39</v>
       </c>
-      <c r="AE49" t="s" s="2">
-        <v>244</v>
-      </c>
+      <c r="AE49" s="2"/>
       <c r="AF49" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG49" t="s" s="2">
-        <v>48</v>
-      </c>
+      <c r="AG49" s="2"/>
       <c r="AH49" t="s" s="2">
         <v>39</v>
       </c>
@@ -6495,29 +6647,29 @@
         <v>39</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>204</v>
+        <v>255</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>39</v>
+        <v>256</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>87</v>
+        <v>39</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>39</v>
@@ -6526,21 +6678,23 @@
         <v>39</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>88</v>
+        <v>258</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>89</v>
+        <v>259</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>206</v>
+        <v>260</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="N50" s="2"/>
+        <v>261</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>262</v>
+      </c>
       <c r="O50" t="s" s="2">
         <v>39</v>
       </c>
@@ -6561,7 +6715,7 @@
         <v>39</v>
       </c>
       <c r="V50" t="s" s="2">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="W50" t="s" s="2">
         <v>39</v>
@@ -6587,15 +6741,11 @@
       <c r="AD50" t="s" s="2">
         <v>39</v>
       </c>
-      <c r="AE50" t="s" s="2">
-        <v>245</v>
-      </c>
+      <c r="AE50" s="2"/>
       <c r="AF50" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG50" t="s" s="2">
-        <v>41</v>
-      </c>
+      <c r="AG50" s="2"/>
       <c r="AH50" t="s" s="2">
         <v>39</v>
       </c>
@@ -6603,50 +6753,50 @@
         <v>39</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>204</v>
+        <v>263</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>39</v>
+        <v>264</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>246</v>
+        <v>265</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>247</v>
+        <v>39</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H51" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I51" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="I51" t="s" s="2">
-        <v>39</v>
-      </c>
       <c r="J51" t="s" s="2">
-        <v>88</v>
+        <v>266</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>148</v>
+        <v>267</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>248</v>
+        <v>268</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>91</v>
+        <v>269</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
@@ -6672,37 +6822,33 @@
         <v>40</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="X51" t="s" s="2">
-        <v>39</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="X51" s="2"/>
       <c r="Y51" t="s" s="2">
-        <v>39</v>
+        <v>270</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AA51" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB51" t="s" s="2">
-        <v>39</v>
-      </c>
+        <v>271</v>
+      </c>
+      <c r="AB51" s="2"/>
       <c r="AC51" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AD51" t="s" s="2">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>246</v>
+        <v>265</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>39</v>
@@ -6711,7 +6857,7 @@
         <v>39</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>85</v>
+        <v>272</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>39</v>
@@ -6722,7 +6868,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>249</v>
+        <v>273</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -6745,13 +6891,13 @@
         <v>49</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>250</v>
+        <v>274</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>251</v>
+        <v>275</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>252</v>
+        <v>276</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -6775,7 +6921,7 @@
         <v>39</v>
       </c>
       <c r="V52" t="s" s="2">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="W52" t="s" s="2">
         <v>39</v>
@@ -6802,7 +6948,7 @@
         <v>39</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>249</v>
+        <v>265</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>40</v>
@@ -6817,18 +6963,18 @@
         <v>39</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>253</v>
+        <v>39</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>254</v>
+        <v>39</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>255</v>
+        <v>39</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>256</v>
+        <v>273</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -6851,13 +6997,13 @@
         <v>49</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>115</v>
+        <v>277</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>257</v>
+        <v>275</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>258</v>
+        <v>276</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -6881,16 +7027,16 @@
         <v>39</v>
       </c>
       <c r="V53" t="s" s="2">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>172</v>
+        <v>39</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>259</v>
+        <v>39</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>260</v>
+        <v>39</v>
       </c>
       <c r="Z53" t="s" s="2">
         <v>39</v>
@@ -6908,7 +7054,7 @@
         <v>39</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>40</v>
@@ -6923,18 +7069,18 @@
         <v>39</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>261</v>
+        <v>39</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>262</v>
+        <v>39</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>263</v>
+        <v>278</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -6942,28 +7088,28 @@
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G54" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H54" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I54" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="H54" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="I54" t="s" s="2">
-        <v>39</v>
-      </c>
       <c r="J54" t="s" s="2">
-        <v>264</v>
+        <v>279</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>265</v>
+        <v>280</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>266</v>
+        <v>281</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -7014,13 +7160,13 @@
         <v>39</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>263</v>
+        <v>278</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>39</v>
@@ -7029,18 +7175,18 @@
         <v>39</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>267</v>
+        <v>282</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>268</v>
+        <v>39</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>269</v>
+        <v>39</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>270</v>
+        <v>283</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7060,16 +7206,16 @@
         <v>39</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>271</v>
+        <v>50</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>272</v>
+        <v>59</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>273</v>
+        <v>60</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
@@ -7120,7 +7266,7 @@
         <v>39</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>270</v>
+        <v>283</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>40</v>
@@ -7135,29 +7281,29 @@
         <v>39</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>274</v>
+        <v>61</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>275</v>
+        <v>39</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>276</v>
+        <v>39</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>39</v>
@@ -7166,21 +7312,21 @@
         <v>39</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>278</v>
+        <v>64</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>279</v>
+        <v>65</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="M56" s="2"/>
-      <c r="N56" t="s" s="2">
-        <v>281</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
         <v>39</v>
       </c>
@@ -7216,25 +7362,23 @@
         <v>39</v>
       </c>
       <c r="AA56" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB56" t="s" s="2">
-        <v>39</v>
-      </c>
+        <v>285</v>
+      </c>
+      <c r="AB56" s="2"/>
       <c r="AC56" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AD56" t="s" s="2">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>39</v>
@@ -7243,10 +7387,10 @@
         <v>39</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>282</v>
+        <v>39</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>39</v>
@@ -7254,9 +7398,11 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="B57" s="2"/>
+        <v>284</v>
+      </c>
+      <c r="B57" t="s" s="2">
+        <v>286</v>
+      </c>
       <c r="C57" t="s" s="2">
         <v>39</v>
       </c>
@@ -7265,7 +7411,7 @@
         <v>40</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>39</v>
@@ -7274,20 +7420,16 @@
         <v>39</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="K57" t="s" s="2">
-        <v>284</v>
-      </c>
+        <v>287</v>
+      </c>
+      <c r="K57" s="2"/>
       <c r="L57" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>286</v>
-      </c>
+        <v>288</v>
+      </c>
+      <c r="M57" s="2"/>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
         <v>39</v>
@@ -7312,13 +7454,13 @@
         <v>40</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>172</v>
+        <v>39</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>287</v>
+        <v>39</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>288</v>
+        <v>39</v>
       </c>
       <c r="Z57" t="s" s="2">
         <v>39</v>
@@ -7336,13 +7478,13 @@
         <v>39</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>39</v>
@@ -7351,7 +7493,7 @@
         <v>39</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>289</v>
+        <v>39</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>39</v>
@@ -7362,7 +7504,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -7373,7 +7515,7 @@
         <v>40</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>39</v>
@@ -7385,17 +7527,15 @@
         <v>39</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>291</v>
+        <v>50</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>292</v>
+        <v>59</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>294</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="M58" s="2"/>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
         <v>39</v>
@@ -7417,7 +7557,7 @@
         <v>39</v>
       </c>
       <c r="V58" t="s" s="2">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="W58" t="s" s="2">
         <v>39</v>
@@ -7444,13 +7584,13 @@
         <v>39</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>290</v>
+        <v>170</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>39</v>
@@ -7459,7 +7599,7 @@
         <v>39</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>295</v>
+        <v>61</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>39</v>
@@ -7470,18 +7610,18 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>39</v>
@@ -7493,16 +7633,16 @@
         <v>39</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>115</v>
+        <v>64</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>297</v>
+        <v>65</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>298</v>
+        <v>66</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>299</v>
+        <v>67</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
@@ -7525,34 +7665,34 @@
         <v>39</v>
       </c>
       <c r="V59" t="s" s="2">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="W59" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X59" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y59" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z59" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA59" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB59" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC59" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD59" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE59" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="X59" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="Y59" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="Z59" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA59" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB59" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC59" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD59" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE59" t="s" s="2">
-        <v>296</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>40</v>
@@ -7567,7 +7707,7 @@
         <v>39</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>302</v>
+        <v>61</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>39</v>
@@ -7578,7 +7718,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>303</v>
+        <v>291</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -7586,10 +7726,10 @@
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>39</v>
@@ -7601,22 +7741,24 @@
         <v>39</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>115</v>
+        <v>83</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>304</v>
+        <v>174</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="M60" s="2"/>
+        <v>175</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>176</v>
+      </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
         <v>39</v>
       </c>
       <c r="P60" s="2"/>
       <c r="Q60" t="s" s="2">
-        <v>39</v>
+        <v>292</v>
       </c>
       <c r="R60" t="s" s="2">
         <v>39</v>
@@ -7631,16 +7773,16 @@
         <v>39</v>
       </c>
       <c r="V60" t="s" s="2">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>172</v>
+        <v>39</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>306</v>
+        <v>39</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>307</v>
+        <v>39</v>
       </c>
       <c r="Z60" t="s" s="2">
         <v>39</v>
@@ -7658,13 +7800,13 @@
         <v>39</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>303</v>
+        <v>178</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>39</v>
@@ -7673,7 +7815,7 @@
         <v>39</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>308</v>
+        <v>127</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>39</v>
@@ -7684,7 +7826,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>309</v>
+        <v>293</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -7692,7 +7834,7 @@
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="F61" t="s" s="2">
         <v>48</v>
@@ -7707,13 +7849,13 @@
         <v>39</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>310</v>
+        <v>294</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>311</v>
+        <v>295</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>312</v>
+        <v>296</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -7737,7 +7879,7 @@
         <v>39</v>
       </c>
       <c r="V61" t="s" s="2">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="W61" t="s" s="2">
         <v>39</v>
@@ -7764,7 +7906,7 @@
         <v>39</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>309</v>
+        <v>184</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>40</v>
@@ -7779,7 +7921,7 @@
         <v>39</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>39</v>
+        <v>127</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>39</v>
@@ -7790,11 +7932,11 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>313</v>
+        <v>297</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>39</v>
+        <v>298</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
@@ -7807,21 +7949,23 @@
         <v>39</v>
       </c>
       <c r="H62" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="I62" t="s" s="2">
         <v>39</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>314</v>
+        <v>64</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>315</v>
+        <v>186</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="M62" s="2"/>
+        <v>299</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>67</v>
+      </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
         <v>39</v>
@@ -7870,7 +8014,7 @@
         <v>39</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>313</v>
+        <v>297</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>40</v>
@@ -7885,18 +8029,18 @@
         <v>39</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>317</v>
+        <v>127</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>318</v>
+        <v>39</v>
       </c>
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>319</v>
+        <v>300</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -7907,7 +8051,7 @@
         <v>40</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>39</v>
@@ -7916,16 +8060,16 @@
         <v>39</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>240</v>
+        <v>301</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>320</v>
+        <v>302</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>321</v>
+        <v>303</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
@@ -7976,13 +8120,13 @@
         <v>39</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>319</v>
+        <v>300</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>39</v>
@@ -7991,18 +8135,18 @@
         <v>39</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>39</v>
+        <v>304</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>39</v>
+        <v>305</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>39</v>
+        <v>306</v>
       </c>
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>322</v>
+        <v>307</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8022,16 +8166,16 @@
         <v>39</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>50</v>
+        <v>180</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>102</v>
+        <v>308</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>203</v>
+        <v>309</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
@@ -8058,13 +8202,13 @@
         <v>40</v>
       </c>
       <c r="W64" t="s" s="2">
-        <v>39</v>
+        <v>99</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>39</v>
+        <v>310</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>39</v>
+        <v>311</v>
       </c>
       <c r="Z64" t="s" s="2">
         <v>39</v>
@@ -8082,7 +8226,7 @@
         <v>39</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>322</v>
+        <v>307</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>40</v>
@@ -8097,32 +8241,32 @@
         <v>39</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>204</v>
+        <v>312</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>39</v>
+        <v>313</v>
       </c>
     </row>
-    <row r="65" hidden="true">
+    <row r="65">
       <c r="A65" t="s" s="2">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
-        <v>87</v>
+        <v>39</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>39</v>
@@ -8131,17 +8275,15 @@
         <v>39</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>88</v>
+        <v>315</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>89</v>
+        <v>316</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>91</v>
-      </c>
+        <v>317</v>
+      </c>
+      <c r="M65" s="2"/>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
         <v>39</v>
@@ -8190,13 +8332,13 @@
         <v>39</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>39</v>
@@ -8205,51 +8347,49 @@
         <v>39</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>204</v>
+        <v>318</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>39</v>
+        <v>319</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>39</v>
+        <v>320</v>
       </c>
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>247</v>
+        <v>39</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H66" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I66" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="I66" t="s" s="2">
-        <v>39</v>
-      </c>
       <c r="J66" t="s" s="2">
-        <v>88</v>
+        <v>322</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>148</v>
+        <v>323</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>91</v>
-      </c>
+        <v>324</v>
+      </c>
+      <c r="M66" s="2"/>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
         <v>39</v>
@@ -8298,13 +8438,13 @@
         <v>39</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>39</v>
@@ -8313,18 +8453,18 @@
         <v>39</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>85</v>
+        <v>325</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>39</v>
+        <v>326</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>39</v>
+        <v>327</v>
       </c>
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -8344,19 +8484,21 @@
         <v>39</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>115</v>
+        <v>329</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="M67" s="2"/>
-      <c r="N67" s="2"/>
+      <c r="N67" t="s" s="2">
+        <v>332</v>
+      </c>
       <c r="O67" t="s" s="2">
         <v>39</v>
       </c>
@@ -8380,31 +8522,31 @@
         <v>40</v>
       </c>
       <c r="W67" t="s" s="2">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="X67" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y67" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z67" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA67" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB67" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC67" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD67" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE67" t="s" s="2">
         <v>328</v>
-      </c>
-      <c r="Y67" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="Z67" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA67" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB67" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC67" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD67" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE67" t="s" s="2">
-        <v>325</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>40</v>
@@ -8422,7 +8564,7 @@
         <v>39</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>39</v>
+        <v>333</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>39</v>
@@ -8430,7 +8572,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -8438,7 +8580,7 @@
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F68" t="s" s="2">
         <v>48</v>
@@ -8450,18 +8592,20 @@
         <v>39</v>
       </c>
       <c r="I68" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>331</v>
+        <v>180</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="M68" s="2"/>
+        <v>336</v>
+      </c>
+      <c r="M68" t="s" s="2">
+        <v>337</v>
+      </c>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
         <v>39</v>
@@ -8486,13 +8630,13 @@
         <v>40</v>
       </c>
       <c r="W68" t="s" s="2">
-        <v>39</v>
+        <v>99</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>39</v>
+        <v>338</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>39</v>
+        <v>339</v>
       </c>
       <c r="Z68" t="s" s="2">
         <v>39</v>
@@ -8510,10 +8654,10 @@
         <v>39</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>48</v>
@@ -8525,7 +8669,7 @@
         <v>39</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>39</v>
+        <v>340</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>39</v>
@@ -8536,7 +8680,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -8559,20 +8703,18 @@
         <v>39</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>339</v>
-      </c>
+        <v>345</v>
+      </c>
+      <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
         <v>39</v>
       </c>
@@ -8620,7 +8762,7 @@
         <v>39</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>40</v>
@@ -8635,17 +8777,1193 @@
         <v>39</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>39</v>
+        <v>346</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL69" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="70" hidden="true">
+      <c r="A70" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="B70" s="2"/>
+      <c r="C70" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D70" s="2"/>
+      <c r="E70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F70" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="G70" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H70" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I70" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J70" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="K70" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="L70" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="M70" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="N70" s="2"/>
+      <c r="O70" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P70" s="2"/>
+      <c r="Q70" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R70" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S70" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T70" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U70" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W70" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="X70" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="Y70" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="Z70" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA70" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB70" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC70" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD70" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE70" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="AF70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG70" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AH70" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI70" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ70" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="AK70" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AL70" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="71" hidden="true">
+      <c r="A71" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="B71" s="2"/>
+      <c r="C71" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D71" s="2"/>
+      <c r="E71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F71" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="G71" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H71" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I71" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J71" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="K71" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="L71" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="M71" s="2"/>
+      <c r="N71" s="2"/>
+      <c r="O71" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P71" s="2"/>
+      <c r="Q71" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R71" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S71" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T71" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U71" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W71" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="X71" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="Y71" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="Z71" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA71" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB71" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC71" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD71" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE71" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="AF71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG71" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AH71" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI71" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ71" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="AK71" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AL71" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="72" hidden="true">
+      <c r="A72" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="B72" s="2"/>
+      <c r="C72" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D72" s="2"/>
+      <c r="E72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F72" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="G72" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H72" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I72" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J72" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="K72" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="L72" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="M72" s="2"/>
+      <c r="N72" s="2"/>
+      <c r="O72" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P72" s="2"/>
+      <c r="Q72" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R72" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S72" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T72" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U72" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W72" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X72" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y72" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z72" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA72" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB72" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC72" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD72" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE72" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="AF72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG72" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AH72" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI72" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ72" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AK72" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AL72" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="73" hidden="true">
+      <c r="A73" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="B73" s="2"/>
+      <c r="C73" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D73" s="2"/>
+      <c r="E73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F73" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="G73" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H73" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I73" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J73" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="K73" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="L73" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="M73" s="2"/>
+      <c r="N73" s="2"/>
+      <c r="O73" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P73" s="2"/>
+      <c r="Q73" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R73" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S73" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T73" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U73" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W73" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X73" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y73" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z73" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA73" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB73" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC73" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD73" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE73" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="AF73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG73" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AH73" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI73" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ73" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="AK73" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AL73" t="s" s="2">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="74" hidden="true">
+      <c r="A74" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="B74" s="2"/>
+      <c r="C74" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D74" s="2"/>
+      <c r="E74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="G74" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H74" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I74" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J74" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="K74" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="L74" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="M74" s="2"/>
+      <c r="N74" s="2"/>
+      <c r="O74" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P74" s="2"/>
+      <c r="Q74" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R74" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S74" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T74" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U74" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W74" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X74" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y74" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z74" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA74" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB74" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC74" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD74" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE74" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="AF74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG74" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AH74" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI74" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ74" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AK74" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AL74" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="75" hidden="true">
+      <c r="A75" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="B75" s="2"/>
+      <c r="C75" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D75" s="2"/>
+      <c r="E75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F75" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="G75" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H75" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I75" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J75" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="K75" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="L75" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="M75" s="2"/>
+      <c r="N75" s="2"/>
+      <c r="O75" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P75" s="2"/>
+      <c r="Q75" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R75" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S75" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T75" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U75" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W75" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X75" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y75" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z75" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA75" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB75" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC75" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD75" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE75" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="AF75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG75" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AH75" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI75" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ75" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AK75" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AL75" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="76" hidden="true">
+      <c r="A76" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="B76" s="2"/>
+      <c r="C76" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="D76" s="2"/>
+      <c r="E76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F76" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="G76" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H76" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I76" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J76" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="K76" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="L76" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="M76" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="N76" s="2"/>
+      <c r="O76" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P76" s="2"/>
+      <c r="Q76" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R76" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S76" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T76" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U76" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W76" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X76" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y76" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z76" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA76" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB76" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC76" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD76" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE76" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="AF76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG76" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AH76" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI76" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ76" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AK76" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AL76" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="77" hidden="true">
+      <c r="A77" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="B77" s="2"/>
+      <c r="C77" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="D77" s="2"/>
+      <c r="E77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F77" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="G77" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H77" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="I77" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J77" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="K77" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="L77" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="M77" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="N77" s="2"/>
+      <c r="O77" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P77" s="2"/>
+      <c r="Q77" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R77" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S77" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T77" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U77" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W77" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X77" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y77" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z77" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA77" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB77" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC77" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD77" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE77" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="AF77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG77" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AH77" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI77" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ77" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="AK77" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AL77" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="78" hidden="true">
+      <c r="A78" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="B78" s="2"/>
+      <c r="C78" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D78" s="2"/>
+      <c r="E78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F78" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="G78" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H78" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I78" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J78" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="K78" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="L78" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="M78" s="2"/>
+      <c r="N78" s="2"/>
+      <c r="O78" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P78" s="2"/>
+      <c r="Q78" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R78" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S78" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T78" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U78" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W78" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="X78" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="Y78" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="Z78" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA78" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB78" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC78" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD78" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE78" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="AF78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG78" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AH78" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI78" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ78" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AK78" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AL78" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="79" hidden="true">
+      <c r="A79" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="B79" s="2"/>
+      <c r="C79" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D79" s="2"/>
+      <c r="E79" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="F79" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="G79" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H79" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I79" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J79" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="K79" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="L79" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="M79" s="2"/>
+      <c r="N79" s="2"/>
+      <c r="O79" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P79" s="2"/>
+      <c r="Q79" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R79" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S79" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T79" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U79" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W79" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X79" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y79" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z79" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA79" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB79" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC79" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD79" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE79" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="AF79" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AG79" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AH79" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI79" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ79" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AK79" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AL79" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="80" hidden="true">
+      <c r="A80" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="B80" s="2"/>
+      <c r="C80" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D80" s="2"/>
+      <c r="E80" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F80" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="G80" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H80" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I80" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J80" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="K80" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="L80" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="M80" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="N80" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="O80" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P80" s="2"/>
+      <c r="Q80" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R80" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S80" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T80" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U80" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V80" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W80" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X80" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y80" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z80" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA80" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB80" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC80" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD80" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE80" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="AF80" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG80" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AH80" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI80" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ80" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AK80" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AL80" t="s" s="2">
         <v>39</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AL69">
+  <autoFilter ref="A1:AL80">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -8655,7 +9973,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI68">
+  <conditionalFormatting sqref="A2:AI79">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
